--- a/Pregame/1.- ELICITACION/1.6 Backlog/G2_Backlog-1Sprint4.xlsx
+++ b/Pregame/1.- ELICITACION/1.6 Backlog/G2_Backlog-1Sprint4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10575" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="7545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="84">
   <si>
     <t>Proyecto</t>
   </si>
@@ -1003,10 +1003,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1024,6 +1020,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1221,10 +1221,10 @@
           </c:spPr>
           <c:cat>
             <c:numRef>
-              <c:f>Datos!$H$5:$BA$5</c:f>
+              <c:f>Datos!$H$5:$AZ$5</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44362</c:v>
                 </c:pt>
@@ -1359,19 +1359,16 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Datos!$H$7:$BA$7</c:f>
+              <c:f>Datos!$H$7:$AZ$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1506,9 +1503,6 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,10 +1745,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Datos!$H$5:$BA$5</c:f>
+              <c:f>Datos!$H$5:$AZ$5</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>44362</c:v>
                 </c:pt>
@@ -1889,19 +1883,16 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Datos!$H$6:$BA$6</c:f>
+              <c:f>Datos!$H$6:$AZ$6</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="46"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2036,9 +2027,6 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2264,6 +2252,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2337,10 +2326,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Gráficos!$B$57:$AB$57</c:f>
+              <c:f>Gráficos!$B$57:$AA$57</c:f>
               <c:numCache>
                 <c:formatCode>[$-C0A]d\-mmm</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44401</c:v>
                 </c:pt>
@@ -2418,19 +2407,16 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráficos!$B$58:$AB$58</c:f>
+              <c:f>Gráficos!$B$58:$AA$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2507,10 +2493,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2550,10 +2533,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Gráficos!$B$57:$AB$57</c:f>
+              <c:f>Gráficos!$B$57:$AA$57</c:f>
               <c:numCache>
                 <c:formatCode>[$-C0A]d\-mmm</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44401</c:v>
                 </c:pt>
@@ -2631,19 +2614,16 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráficos!$B$59:$AB$59</c:f>
+              <c:f>Gráficos!$B$59:$AA$59</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2720,10 +2700,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2763,10 +2740,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Gráficos!$B$57:$AB$57</c:f>
+              <c:f>Gráficos!$B$57:$AA$57</c:f>
               <c:numCache>
                 <c:formatCode>[$-C0A]d\-mmm</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44401</c:v>
                 </c:pt>
@@ -2844,19 +2821,16 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráficos!$B$60:$AB$60</c:f>
+              <c:f>Gráficos!$B$60:$AA$60</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2933,10 +2907,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,10 +2947,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Gráficos!$B$57:$AB$57</c:f>
+              <c:f>Gráficos!$B$57:$AA$57</c:f>
               <c:numCache>
                 <c:formatCode>[$-C0A]d\-mmm</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>44401</c:v>
                 </c:pt>
@@ -3057,19 +3028,16 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>44440</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>44441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Gráficos!$B$61:$AB$61</c:f>
+              <c:f>Gráficos!$B$61:$AA$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3146,10 +3114,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3289,6 +3254,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4019,7 +3985,7 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -5267,8 +5233,8 @@
   </sheetPr>
   <dimension ref="A1:G1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5325,7 +5291,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="42" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5339,7 +5305,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5353,7 +5319,7 @@
         <v>6</v>
       </c>
       <c r="D11" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5367,7 +5333,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5381,7 +5347,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6528,10 +6494,10 @@
   <dimension ref="A1:BK1004"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="7" ySplit="9" topLeftCell="AV10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="9" topLeftCell="AV40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
+      <selection pane="bottomRight" activeCell="BB48" sqref="BB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6549,22 +6515,22 @@
     <col min="34" max="34" width="4.28515625" customWidth="1"/>
     <col min="35" max="40" width="4.28515625" style="42" customWidth="1"/>
     <col min="41" max="47" width="4.28515625" style="64" customWidth="1"/>
-    <col min="48" max="53" width="4.28515625" style="68" customWidth="1"/>
-    <col min="54" max="54" width="4.28515625" customWidth="1"/>
-    <col min="55" max="60" width="10" customWidth="1"/>
-    <col min="61" max="63" width="10" hidden="1" customWidth="1"/>
+    <col min="48" max="52" width="4.28515625" style="68" customWidth="1"/>
+    <col min="53" max="53" width="4.28515625" customWidth="1"/>
+    <col min="54" max="59" width="10" customWidth="1"/>
+    <col min="60" max="62" width="10" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
     </row>
-    <row r="2" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
     </row>
-    <row r="3" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="C3" s="18" t="s">
         <v>16</v>
@@ -6577,7 +6543,7 @@
       </c>
       <c r="W3" s="19"/>
     </row>
-    <row r="4" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="56">
@@ -6728,12 +6694,9 @@
       <c r="AZ4" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="BA4" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB4" s="20"/>
-    </row>
-    <row r="5" spans="1:63" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA4" s="20"/>
+    </row>
+    <row r="5" spans="1:62" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="53"/>
@@ -6876,10 +6839,8 @@
       <c r="AZ5" s="79">
         <v>44440</v>
       </c>
-      <c r="BA5" s="79">
-        <v>44441</v>
-      </c>
-      <c r="BB5" s="22"/>
+      <c r="BA5" s="22"/>
+      <c r="BB5" s="21"/>
       <c r="BC5" s="21"/>
       <c r="BD5" s="21"/>
       <c r="BE5" s="21"/>
@@ -6888,18 +6849,17 @@
       <c r="BH5" s="21"/>
       <c r="BI5" s="21"/>
       <c r="BJ5" s="21"/>
-      <c r="BK5" s="21"/>
-    </row>
-    <row r="6" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="103"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="H6" s="80">
         <v>2</v>
       </c>
@@ -7038,35 +6998,32 @@
       <c r="AZ6" s="80">
         <v>4</v>
       </c>
-      <c r="BA6" s="80">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="23"/>
+      <c r="BA6" s="23"/>
+      <c r="BB6" s="21"/>
       <c r="BC6" s="21"/>
       <c r="BD6" s="21"/>
       <c r="BE6" s="21"/>
       <c r="BF6" s="21"/>
       <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="24" t="str">
+      <c r="BH6" s="24" t="str">
         <f>Config!A17</f>
         <v>Análisis</v>
       </c>
-      <c r="BJ6" s="24" t="str">
+      <c r="BI6" s="24" t="str">
         <f>Config!B17</f>
         <v>Terminado</v>
       </c>
-      <c r="BK6" s="24">
+      <c r="BJ6" s="24">
         <f>Config!C25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="104" t="s">
+    <row r="7" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="102"/>
-      <c r="G7" s="105"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="81">
         <v>8</v>
       </c>
@@ -7202,32 +7159,29 @@
       <c r="AZ7" s="81">
         <v>11</v>
       </c>
-      <c r="BA7" s="81">
-        <v>5</v>
-      </c>
-      <c r="BI7" s="24" t="str">
+      <c r="BH7" s="24" t="str">
         <f>Config!A18</f>
         <v>Documentación</v>
       </c>
-      <c r="BJ7" s="24" t="str">
+      <c r="BI7" s="24" t="str">
         <f>Config!B18</f>
         <v>No iniciado</v>
       </c>
-      <c r="BK7" s="24" t="str">
+      <c r="BJ7" s="24" t="str">
         <f>Config!C23</f>
         <v>Angel-Bryan-Joel-Steven</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
+    <row r="8" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="50"/>
       <c r="I8" s="50"/>
       <c r="J8" s="50"/>
@@ -7242,21 +7196,21 @@
       <c r="S8" s="50"/>
       <c r="T8" s="50"/>
       <c r="U8" s="50"/>
-      <c r="V8" s="109" t="s">
+      <c r="V8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="W8" s="105"/>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="105"/>
-      <c r="Z8" s="105"/>
-      <c r="AA8" s="105"/>
-      <c r="AB8" s="105"/>
-      <c r="AC8" s="105"/>
-      <c r="AD8" s="105"/>
-      <c r="AE8" s="105"/>
-      <c r="AF8" s="105"/>
-      <c r="AG8" s="105"/>
-      <c r="AH8" s="105"/>
+      <c r="W8" s="101"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="101"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="101"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="101"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
       <c r="AI8" s="43"/>
       <c r="AJ8" s="43"/>
       <c r="AK8" s="43"/>
@@ -7275,29 +7229,28 @@
       <c r="AX8" s="69"/>
       <c r="AY8" s="69"/>
       <c r="AZ8" s="69"/>
-      <c r="BA8" s="69"/>
-      <c r="BI8" s="24" t="e">
+      <c r="BH8" s="24" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="BJ8" s="24" t="str">
+      <c r="BI8" s="24" t="str">
         <f>Config!B19</f>
         <v>En curso</v>
       </c>
-      <c r="BK8" s="24" t="str">
+      <c r="BJ8" s="24" t="str">
         <f>Config!C17</f>
         <v>Angel</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="106" t="s">
+      <c r="B9" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="25" t="s">
         <v>25</v>
       </c>
@@ -7321,36 +7274,36 @@
       <c r="S9" s="50"/>
       <c r="T9" s="50"/>
       <c r="U9" s="50"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="102"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="102"/>
-      <c r="AD9" s="102"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="BB9" s="17"/>
-      <c r="BI9" s="24" t="str">
+      <c r="V9" s="101"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="BA9" s="17"/>
+      <c r="BH9" s="24" t="str">
         <f>Config!A19</f>
         <v>Programación</v>
       </c>
-      <c r="BJ9" s="24">
+      <c r="BI9" s="24">
         <f>Config!B20</f>
         <v>0</v>
       </c>
-      <c r="BK9" s="24" t="str">
+      <c r="BJ9" s="24" t="str">
         <f>Config!C20</f>
         <v>Steven</v>
       </c>
     </row>
-    <row r="10" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="106" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="86"/>
@@ -7415,23 +7368,22 @@
       <c r="AX10" s="73"/>
       <c r="AY10" s="73"/>
       <c r="AZ10" s="73"/>
-      <c r="BA10" s="73"/>
-      <c r="BI10" s="24">
+      <c r="BH10" s="24">
         <f>Config!A21</f>
         <v>0</v>
       </c>
-      <c r="BJ10" s="24">
+      <c r="BI10" s="24">
         <f>Config!B21</f>
         <v>0</v>
       </c>
-      <c r="BK10" s="24" t="str">
+      <c r="BJ10" s="24" t="str">
         <f>Config!C21</f>
         <v>Angel-Bryan</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="106" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="86"/>
@@ -7492,21 +7444,20 @@
       <c r="AX11" s="73"/>
       <c r="AY11" s="73"/>
       <c r="AZ11" s="73"/>
-      <c r="BA11" s="73"/>
-      <c r="BI11" s="24">
+      <c r="BH11" s="24">
         <f>Config!A22</f>
         <v>0</v>
       </c>
-      <c r="BJ11" s="24">
+      <c r="BI11" s="24">
         <f>Config!B22</f>
         <v>0</v>
       </c>
-      <c r="BK11" s="24" t="str">
+      <c r="BJ11" s="24" t="str">
         <f>Config!C22</f>
         <v>Joel-Steven</v>
       </c>
     </row>
-    <row r="12" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:62" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="47" t="s">
         <v>37</v>
@@ -7569,12 +7520,11 @@
       <c r="AX12" s="73"/>
       <c r="AY12" s="73"/>
       <c r="AZ12" s="73"/>
-      <c r="BA12" s="73"/>
+      <c r="BH12" s="24"/>
       <c r="BI12" s="24"/>
       <c r="BJ12" s="24"/>
-      <c r="BK12" s="24"/>
-    </row>
-    <row r="13" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:62" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="48" t="s">
         <v>38</v>
@@ -7637,14 +7587,13 @@
       <c r="AX13" s="73"/>
       <c r="AY13" s="73"/>
       <c r="AZ13" s="73"/>
-      <c r="BA13" s="73"/>
+      <c r="BH13" s="24"/>
       <c r="BI13" s="24"/>
       <c r="BJ13" s="24"/>
-      <c r="BK13" s="24"/>
-    </row>
-    <row r="14" spans="1:63" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:62" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="106" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="86"/>
@@ -7705,23 +7654,22 @@
       <c r="AX14" s="73"/>
       <c r="AY14" s="73"/>
       <c r="AZ14" s="73"/>
-      <c r="BA14" s="73"/>
-      <c r="BI14" s="24">
+      <c r="BH14" s="24">
         <f>Config!A23</f>
         <v>0</v>
       </c>
-      <c r="BJ14" s="24">
+      <c r="BI14" s="24">
         <f>Config!B23</f>
         <v>0</v>
       </c>
-      <c r="BK14" s="24" t="str">
+      <c r="BJ14" s="24" t="str">
         <f>Config!C19</f>
         <v>Joel</v>
       </c>
     </row>
-    <row r="15" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="106" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="86"/>
@@ -7784,23 +7732,22 @@
       <c r="AX15" s="73"/>
       <c r="AY15" s="73"/>
       <c r="AZ15" s="73"/>
-      <c r="BA15" s="73"/>
-      <c r="BI15" s="24">
+      <c r="BH15" s="24">
         <f>Config!A24</f>
         <v>0</v>
       </c>
-      <c r="BJ15" s="24">
+      <c r="BI15" s="24">
         <f>Config!B24</f>
         <v>0</v>
       </c>
-      <c r="BK15" s="24" t="str">
+      <c r="BJ15" s="24" t="str">
         <f>Config!C18</f>
         <v>Bryan</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
-      <c r="B16" s="98" t="s">
+      <c r="B16" s="106" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="86"/>
@@ -7861,21 +7808,20 @@
       <c r="AX16" s="73"/>
       <c r="AY16" s="73"/>
       <c r="AZ16" s="73"/>
-      <c r="BA16" s="73"/>
-      <c r="BI16" s="24">
+      <c r="BH16" s="24">
         <f>Config!A25</f>
         <v>0</v>
       </c>
-      <c r="BJ16" s="24">
+      <c r="BI16" s="24">
         <f>Config!B25</f>
         <v>0</v>
       </c>
-      <c r="BK16" s="24" t="e">
+      <c r="BJ16" s="24" t="e">
         <f>Config!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="49" t="s">
         <v>42</v>
@@ -7936,23 +7882,22 @@
       <c r="AX17" s="73"/>
       <c r="AY17" s="73"/>
       <c r="AZ17" s="73"/>
-      <c r="BA17" s="73"/>
-      <c r="BI17" s="24">
+      <c r="BH17" s="24">
         <f>Config!A26</f>
         <v>0</v>
       </c>
-      <c r="BJ17" s="24">
+      <c r="BI17" s="24">
         <f>Config!B26</f>
         <v>0</v>
       </c>
-      <c r="BK17" s="24">
+      <c r="BJ17" s="24">
         <f>Config!C26</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="106" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="86"/>
@@ -8015,23 +7960,22 @@
       <c r="AX18" s="73"/>
       <c r="AY18" s="73"/>
       <c r="AZ18" s="73"/>
-      <c r="BA18" s="73"/>
-      <c r="BI18" s="24">
+      <c r="BH18" s="24">
         <f>Config!A27</f>
         <v>0</v>
       </c>
-      <c r="BJ18" s="24">
+      <c r="BI18" s="24">
         <f>Config!B27</f>
         <v>0</v>
       </c>
-      <c r="BK18" s="24">
+      <c r="BJ18" s="24">
         <f>Config!C27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="106" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="86"/>
@@ -8094,11 +8038,10 @@
       <c r="AX19" s="73"/>
       <c r="AY19" s="73"/>
       <c r="AZ19" s="73"/>
-      <c r="BA19" s="73"/>
-    </row>
-    <row r="20" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
-      <c r="B20" s="98" t="s">
+      <c r="B20" s="106" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="86"/>
@@ -8159,13 +8102,12 @@
       <c r="AX20" s="73"/>
       <c r="AY20" s="73"/>
       <c r="AZ20" s="73"/>
-      <c r="BA20" s="73"/>
-    </row>
-    <row r="21" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="98" t="s">
+      <c r="B21" s="106" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="86"/>
@@ -8226,11 +8168,10 @@
       <c r="AX21" s="73"/>
       <c r="AY21" s="73"/>
       <c r="AZ21" s="73"/>
-      <c r="BA21" s="73"/>
-    </row>
-    <row r="22" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="86"/>
@@ -8291,11 +8232,10 @@
       <c r="AX22" s="73"/>
       <c r="AY22" s="73"/>
       <c r="AZ22" s="73"/>
-      <c r="BA22" s="73"/>
-    </row>
-    <row r="23" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="106" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="86"/>
@@ -8358,11 +8298,10 @@
       <c r="AX23" s="73"/>
       <c r="AY23" s="73"/>
       <c r="AZ23" s="73"/>
-      <c r="BA23" s="73"/>
-    </row>
-    <row r="24" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
-      <c r="B24" s="98" t="s">
+      <c r="B24" s="106" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="86"/>
@@ -8425,13 +8364,12 @@
       <c r="AX24" s="73"/>
       <c r="AY24" s="73"/>
       <c r="AZ24" s="73"/>
-      <c r="BA24" s="73"/>
-    </row>
-    <row r="25" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="106" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="86"/>
@@ -8494,11 +8432,10 @@
       <c r="AX25" s="73"/>
       <c r="AY25" s="73"/>
       <c r="AZ25" s="73"/>
-      <c r="BA25" s="73"/>
-    </row>
-    <row r="26" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="86"/>
@@ -8565,15 +8502,14 @@
       <c r="AX26" s="73"/>
       <c r="AY26" s="73"/>
       <c r="AZ26" s="73"/>
-      <c r="BA26" s="73"/>
-    </row>
-    <row r="27" spans="1:63" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:62" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
       <c r="E27" s="26" t="s">
         <v>10</v>
       </c>
@@ -8630,11 +8566,10 @@
       <c r="AX27" s="73"/>
       <c r="AY27" s="73"/>
       <c r="AZ27" s="73"/>
-      <c r="BA27" s="73"/>
-    </row>
-    <row r="28" spans="1:63" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:62" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="106" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="86"/>
@@ -8697,13 +8632,12 @@
       <c r="AX28" s="73"/>
       <c r="AY28" s="73"/>
       <c r="AZ28" s="73"/>
-      <c r="BA28" s="73"/>
-    </row>
-    <row r="29" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="107" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="86"/>
@@ -8768,11 +8702,10 @@
       <c r="AX29" s="73"/>
       <c r="AY29" s="73"/>
       <c r="AZ29" s="73"/>
-      <c r="BA29" s="73"/>
-    </row>
-    <row r="30" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="86"/>
@@ -8837,15 +8770,14 @@
       <c r="AX30" s="73"/>
       <c r="AY30" s="73"/>
       <c r="AZ30" s="73"/>
-      <c r="BA30" s="73"/>
-    </row>
-    <row r="31" spans="1:63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="109"/>
       <c r="E31" s="26" t="s">
         <v>10</v>
       </c>
@@ -8902,11 +8834,10 @@
       <c r="AX31" s="73"/>
       <c r="AY31" s="73"/>
       <c r="AZ31" s="73"/>
-      <c r="BA31" s="73"/>
-    </row>
-    <row r="32" spans="1:63" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:62" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
-      <c r="B32" s="98" t="s">
+      <c r="B32" s="106" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="86"/>
@@ -8969,13 +8900,12 @@
       <c r="AX32" s="73"/>
       <c r="AY32" s="73"/>
       <c r="AZ32" s="73"/>
-      <c r="BA32" s="73"/>
-    </row>
-    <row r="33" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="107" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="86"/>
@@ -9042,11 +8972,10 @@
       <c r="AX33" s="73"/>
       <c r="AY33" s="73"/>
       <c r="AZ33" s="73"/>
-      <c r="BA33" s="73"/>
-    </row>
-    <row r="34" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="107" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="86"/>
@@ -9111,11 +9040,10 @@
       <c r="AX34" s="73"/>
       <c r="AY34" s="73"/>
       <c r="AZ34" s="73"/>
-      <c r="BA34" s="73"/>
-    </row>
-    <row r="35" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="107" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="86"/>
@@ -9176,11 +9104,10 @@
       <c r="AX35" s="73"/>
       <c r="AY35" s="73"/>
       <c r="AZ35" s="73"/>
-      <c r="BA35" s="73"/>
-    </row>
-    <row r="36" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="107" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="86"/>
@@ -9241,11 +9168,10 @@
       <c r="AX36" s="73"/>
       <c r="AY36" s="73"/>
       <c r="AZ36" s="73"/>
-      <c r="BA36" s="73"/>
-    </row>
-    <row r="37" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
-      <c r="B37" s="97" t="s">
+      <c r="B37" s="107" t="s">
         <v>71</v>
       </c>
       <c r="C37" s="86"/>
@@ -9308,11 +9234,10 @@
       <c r="AX37" s="73"/>
       <c r="AY37" s="73"/>
       <c r="AZ37" s="73"/>
-      <c r="BA37" s="73"/>
-    </row>
-    <row r="38" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="107" t="s">
         <v>42</v>
       </c>
       <c r="C38" s="86"/>
@@ -9373,11 +9298,10 @@
       <c r="AX38" s="73"/>
       <c r="AY38" s="73"/>
       <c r="AZ38" s="73"/>
-      <c r="BA38" s="73"/>
-    </row>
-    <row r="39" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
-      <c r="B39" s="97" t="s">
+      <c r="B39" s="107" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="86"/>
@@ -9438,11 +9362,10 @@
       <c r="AX39" s="73"/>
       <c r="AY39" s="73"/>
       <c r="AZ39" s="73"/>
-      <c r="BA39" s="73"/>
-    </row>
-    <row r="40" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="106" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="86"/>
@@ -9505,13 +9428,12 @@
       <c r="AX40" s="73"/>
       <c r="AY40" s="73"/>
       <c r="AZ40" s="73"/>
-      <c r="BA40" s="73"/>
-    </row>
-    <row r="41" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="107" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="86"/>
@@ -9578,13 +9500,12 @@
       </c>
       <c r="AY41" s="73"/>
       <c r="AZ41" s="73"/>
-      <c r="BA41" s="73"/>
-    </row>
-    <row r="42" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="107" t="s">
         <v>77</v>
       </c>
       <c r="C42" s="86"/>
@@ -9651,11 +9572,10 @@
       </c>
       <c r="AY42" s="73"/>
       <c r="AZ42" s="73"/>
-      <c r="BA42" s="73"/>
-    </row>
-    <row r="43" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="107" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="86"/>
@@ -9720,11 +9640,10 @@
       </c>
       <c r="AY43" s="73"/>
       <c r="AZ43" s="73"/>
-      <c r="BA43" s="73"/>
-    </row>
-    <row r="44" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="107" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="86"/>
@@ -9785,11 +9704,10 @@
       <c r="AX44" s="73"/>
       <c r="AY44" s="73"/>
       <c r="AZ44" s="73"/>
-      <c r="BA44" s="73"/>
-    </row>
-    <row r="45" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="107" t="s">
         <v>78</v>
       </c>
       <c r="C45" s="86"/>
@@ -9856,11 +9774,10 @@
       <c r="AZ45" s="73">
         <v>2</v>
       </c>
-      <c r="BA45" s="73"/>
-    </row>
-    <row r="46" spans="1:53" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:52" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
-      <c r="B46" s="97" t="s">
+      <c r="B46" s="107" t="s">
         <v>69</v>
       </c>
       <c r="C46" s="86"/>
@@ -9921,11 +9838,10 @@
       <c r="AZ46" s="73">
         <v>2</v>
       </c>
-      <c r="BA46" s="73"/>
-    </row>
-    <row r="47" spans="1:53" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:52" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="107" t="s">
         <v>70</v>
       </c>
       <c r="C47" s="86"/>
@@ -9986,11 +9902,10 @@
       <c r="AZ47" s="73">
         <v>2</v>
       </c>
-      <c r="BA47" s="73"/>
-    </row>
-    <row r="48" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="107" t="s">
         <v>82</v>
       </c>
       <c r="C48" s="86"/>
@@ -10048,14 +9963,13 @@
       <c r="AW48" s="73"/>
       <c r="AX48" s="73"/>
       <c r="AY48" s="73"/>
-      <c r="AZ48" s="73"/>
-      <c r="BA48" s="73">
+      <c r="AZ48" s="73">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="107" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="86"/>
@@ -10113,14 +10027,13 @@
       <c r="AW49" s="73"/>
       <c r="AX49" s="73"/>
       <c r="AY49" s="73"/>
-      <c r="AZ49" s="73"/>
-      <c r="BA49" s="73">
+      <c r="AZ49" s="73">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
-      <c r="B50" s="97"/>
+      <c r="B50" s="107"/>
       <c r="C50" s="86"/>
       <c r="D50" s="87"/>
       <c r="E50" s="26"/>
@@ -10171,11 +10084,10 @@
       <c r="AX50" s="51"/>
       <c r="AY50" s="51"/>
       <c r="AZ50" s="51"/>
-      <c r="BA50" s="51"/>
-    </row>
-    <row r="51" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
-      <c r="B51" s="97"/>
+      <c r="B51" s="107"/>
       <c r="C51" s="86"/>
       <c r="D51" s="87"/>
       <c r="E51" s="26"/>
@@ -10226,11 +10138,10 @@
       <c r="AX51" s="51"/>
       <c r="AY51" s="51"/>
       <c r="AZ51" s="51"/>
-      <c r="BA51" s="51"/>
-    </row>
-    <row r="52" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
-      <c r="B52" s="97"/>
+      <c r="B52" s="107"/>
       <c r="C52" s="86"/>
       <c r="D52" s="87"/>
       <c r="E52" s="26"/>
@@ -10281,11 +10192,10 @@
       <c r="AX52" s="51"/>
       <c r="AY52" s="51"/>
       <c r="AZ52" s="51"/>
-      <c r="BA52" s="51"/>
-    </row>
-    <row r="53" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
-      <c r="B53" s="97"/>
+      <c r="B53" s="107"/>
       <c r="C53" s="86"/>
       <c r="D53" s="87"/>
       <c r="E53" s="26"/>
@@ -10336,11 +10246,10 @@
       <c r="AX53" s="51"/>
       <c r="AY53" s="51"/>
       <c r="AZ53" s="51"/>
-      <c r="BA53" s="51"/>
-    </row>
-    <row r="54" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="26"/>
-      <c r="B54" s="97"/>
+      <c r="B54" s="107"/>
       <c r="C54" s="86"/>
       <c r="D54" s="87"/>
       <c r="E54" s="26"/>
@@ -10391,11 +10300,10 @@
       <c r="AX54" s="51"/>
       <c r="AY54" s="51"/>
       <c r="AZ54" s="51"/>
-      <c r="BA54" s="51"/>
-    </row>
-    <row r="55" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26"/>
-      <c r="B55" s="97"/>
+      <c r="B55" s="107"/>
       <c r="C55" s="86"/>
       <c r="D55" s="87"/>
       <c r="E55" s="26"/>
@@ -10446,11 +10354,10 @@
       <c r="AX55" s="51"/>
       <c r="AY55" s="51"/>
       <c r="AZ55" s="51"/>
-      <c r="BA55" s="51"/>
-    </row>
-    <row r="56" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
-      <c r="B56" s="97"/>
+      <c r="B56" s="107"/>
       <c r="C56" s="86"/>
       <c r="D56" s="87"/>
       <c r="E56" s="26"/>
@@ -10501,11 +10408,10 @@
       <c r="AX56" s="51"/>
       <c r="AY56" s="51"/>
       <c r="AZ56" s="51"/>
-      <c r="BA56" s="51"/>
-    </row>
-    <row r="57" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
-      <c r="B57" s="97"/>
+      <c r="B57" s="107"/>
       <c r="C57" s="86"/>
       <c r="D57" s="87"/>
       <c r="E57" s="26"/>
@@ -10556,11 +10462,10 @@
       <c r="AX57" s="51"/>
       <c r="AY57" s="51"/>
       <c r="AZ57" s="51"/>
-      <c r="BA57" s="51"/>
-    </row>
-    <row r="58" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26"/>
-      <c r="B58" s="97"/>
+      <c r="B58" s="107"/>
       <c r="C58" s="86"/>
       <c r="D58" s="87"/>
       <c r="E58" s="26"/>
@@ -10611,11 +10516,10 @@
       <c r="AX58" s="51"/>
       <c r="AY58" s="51"/>
       <c r="AZ58" s="51"/>
-      <c r="BA58" s="51"/>
-    </row>
-    <row r="59" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26"/>
-      <c r="B59" s="97"/>
+      <c r="B59" s="107"/>
       <c r="C59" s="86"/>
       <c r="D59" s="87"/>
       <c r="E59" s="26"/>
@@ -10666,11 +10570,10 @@
       <c r="AX59" s="51"/>
       <c r="AY59" s="51"/>
       <c r="AZ59" s="51"/>
-      <c r="BA59" s="51"/>
-    </row>
-    <row r="60" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
-      <c r="B60" s="97"/>
+      <c r="B60" s="107"/>
       <c r="C60" s="86"/>
       <c r="D60" s="87"/>
       <c r="E60" s="26"/>
@@ -10721,11 +10624,10 @@
       <c r="AX60" s="51"/>
       <c r="AY60" s="51"/>
       <c r="AZ60" s="51"/>
-      <c r="BA60" s="51"/>
-    </row>
-    <row r="61" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26"/>
-      <c r="B61" s="97"/>
+      <c r="B61" s="107"/>
       <c r="C61" s="86"/>
       <c r="D61" s="87"/>
       <c r="E61" s="26"/>
@@ -10776,11 +10678,10 @@
       <c r="AX61" s="51"/>
       <c r="AY61" s="51"/>
       <c r="AZ61" s="51"/>
-      <c r="BA61" s="51"/>
-    </row>
-    <row r="62" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26"/>
-      <c r="B62" s="97"/>
+      <c r="B62" s="107"/>
       <c r="C62" s="86"/>
       <c r="D62" s="87"/>
       <c r="E62" s="26"/>
@@ -10831,11 +10732,10 @@
       <c r="AX62" s="51"/>
       <c r="AY62" s="51"/>
       <c r="AZ62" s="51"/>
-      <c r="BA62" s="51"/>
-    </row>
-    <row r="63" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26"/>
-      <c r="B63" s="97"/>
+      <c r="B63" s="107"/>
       <c r="C63" s="86"/>
       <c r="D63" s="87"/>
       <c r="E63" s="26"/>
@@ -10886,11 +10786,10 @@
       <c r="AX63" s="51"/>
       <c r="AY63" s="51"/>
       <c r="AZ63" s="51"/>
-      <c r="BA63" s="51"/>
-    </row>
-    <row r="64" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
-      <c r="B64" s="97"/>
+      <c r="B64" s="107"/>
       <c r="C64" s="86"/>
       <c r="D64" s="87"/>
       <c r="E64" s="26"/>
@@ -10941,11 +10840,10 @@
       <c r="AX64" s="51"/>
       <c r="AY64" s="51"/>
       <c r="AZ64" s="51"/>
-      <c r="BA64" s="51"/>
-    </row>
-    <row r="65" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
-      <c r="B65" s="97"/>
+      <c r="B65" s="107"/>
       <c r="C65" s="86"/>
       <c r="D65" s="87"/>
       <c r="E65" s="26"/>
@@ -10996,11 +10894,10 @@
       <c r="AX65" s="51"/>
       <c r="AY65" s="51"/>
       <c r="AZ65" s="51"/>
-      <c r="BA65" s="51"/>
-    </row>
-    <row r="66" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
-      <c r="B66" s="97"/>
+      <c r="B66" s="107"/>
       <c r="C66" s="86"/>
       <c r="D66" s="87"/>
       <c r="E66" s="26"/>
@@ -11051,11 +10948,10 @@
       <c r="AX66" s="51"/>
       <c r="AY66" s="51"/>
       <c r="AZ66" s="51"/>
-      <c r="BA66" s="51"/>
-    </row>
-    <row r="67" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
-      <c r="B67" s="97"/>
+      <c r="B67" s="107"/>
       <c r="C67" s="86"/>
       <c r="D67" s="87"/>
       <c r="E67" s="26"/>
@@ -11106,11 +11002,10 @@
       <c r="AX67" s="51"/>
       <c r="AY67" s="51"/>
       <c r="AZ67" s="51"/>
-      <c r="BA67" s="51"/>
-    </row>
-    <row r="68" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="26"/>
-      <c r="B68" s="97"/>
+      <c r="B68" s="107"/>
       <c r="C68" s="86"/>
       <c r="D68" s="87"/>
       <c r="E68" s="26"/>
@@ -11161,11 +11056,10 @@
       <c r="AX68" s="51"/>
       <c r="AY68" s="51"/>
       <c r="AZ68" s="51"/>
-      <c r="BA68" s="51"/>
-    </row>
-    <row r="69" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26"/>
-      <c r="B69" s="97"/>
+      <c r="B69" s="107"/>
       <c r="C69" s="86"/>
       <c r="D69" s="87"/>
       <c r="E69" s="26"/>
@@ -11216,11 +11110,10 @@
       <c r="AX69" s="51"/>
       <c r="AY69" s="51"/>
       <c r="AZ69" s="51"/>
-      <c r="BA69" s="51"/>
-    </row>
-    <row r="70" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
-      <c r="B70" s="97"/>
+      <c r="B70" s="107"/>
       <c r="C70" s="86"/>
       <c r="D70" s="87"/>
       <c r="E70" s="26"/>
@@ -11271,11 +11164,10 @@
       <c r="AX70" s="51"/>
       <c r="AY70" s="51"/>
       <c r="AZ70" s="51"/>
-      <c r="BA70" s="51"/>
-    </row>
-    <row r="71" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26"/>
-      <c r="B71" s="97"/>
+      <c r="B71" s="107"/>
       <c r="C71" s="86"/>
       <c r="D71" s="87"/>
       <c r="E71" s="26"/>
@@ -11326,11 +11218,10 @@
       <c r="AX71" s="51"/>
       <c r="AY71" s="51"/>
       <c r="AZ71" s="51"/>
-      <c r="BA71" s="51"/>
-    </row>
-    <row r="72" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
-      <c r="B72" s="97"/>
+      <c r="B72" s="107"/>
       <c r="C72" s="86"/>
       <c r="D72" s="87"/>
       <c r="E72" s="26"/>
@@ -11381,11 +11272,10 @@
       <c r="AX72" s="51"/>
       <c r="AY72" s="51"/>
       <c r="AZ72" s="51"/>
-      <c r="BA72" s="51"/>
-    </row>
-    <row r="73" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
-      <c r="B73" s="97"/>
+      <c r="B73" s="107"/>
       <c r="C73" s="86"/>
       <c r="D73" s="87"/>
       <c r="E73" s="26"/>
@@ -11436,11 +11326,10 @@
       <c r="AX73" s="51"/>
       <c r="AY73" s="51"/>
       <c r="AZ73" s="51"/>
-      <c r="BA73" s="51"/>
-    </row>
-    <row r="74" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
-      <c r="B74" s="97"/>
+      <c r="B74" s="107"/>
       <c r="C74" s="86"/>
       <c r="D74" s="87"/>
       <c r="E74" s="26"/>
@@ -11491,11 +11380,10 @@
       <c r="AX74" s="51"/>
       <c r="AY74" s="51"/>
       <c r="AZ74" s="51"/>
-      <c r="BA74" s="51"/>
-    </row>
-    <row r="75" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
-      <c r="B75" s="97"/>
+      <c r="B75" s="107"/>
       <c r="C75" s="86"/>
       <c r="D75" s="87"/>
       <c r="E75" s="26"/>
@@ -11546,11 +11434,10 @@
       <c r="AX75" s="51"/>
       <c r="AY75" s="51"/>
       <c r="AZ75" s="51"/>
-      <c r="BA75" s="51"/>
-    </row>
-    <row r="76" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26"/>
-      <c r="B76" s="97"/>
+      <c r="B76" s="107"/>
       <c r="C76" s="86"/>
       <c r="D76" s="87"/>
       <c r="E76" s="26"/>
@@ -11601,11 +11488,10 @@
       <c r="AX76" s="51"/>
       <c r="AY76" s="51"/>
       <c r="AZ76" s="51"/>
-      <c r="BA76" s="51"/>
-    </row>
-    <row r="77" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="26"/>
-      <c r="B77" s="97"/>
+      <c r="B77" s="107"/>
       <c r="C77" s="86"/>
       <c r="D77" s="87"/>
       <c r="E77" s="26"/>
@@ -11656,11 +11542,10 @@
       <c r="AX77" s="51"/>
       <c r="AY77" s="51"/>
       <c r="AZ77" s="51"/>
-      <c r="BA77" s="51"/>
-    </row>
-    <row r="78" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="26"/>
-      <c r="B78" s="97"/>
+      <c r="B78" s="107"/>
       <c r="C78" s="86"/>
       <c r="D78" s="87"/>
       <c r="E78" s="26"/>
@@ -11711,11 +11596,10 @@
       <c r="AX78" s="51"/>
       <c r="AY78" s="51"/>
       <c r="AZ78" s="51"/>
-      <c r="BA78" s="51"/>
-    </row>
-    <row r="79" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
-      <c r="B79" s="97"/>
+      <c r="B79" s="107"/>
       <c r="C79" s="86"/>
       <c r="D79" s="87"/>
       <c r="E79" s="26"/>
@@ -11766,11 +11650,10 @@
       <c r="AX79" s="51"/>
       <c r="AY79" s="51"/>
       <c r="AZ79" s="51"/>
-      <c r="BA79" s="51"/>
-    </row>
-    <row r="80" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="26"/>
-      <c r="B80" s="97"/>
+      <c r="B80" s="107"/>
       <c r="C80" s="86"/>
       <c r="D80" s="87"/>
       <c r="E80" s="26"/>
@@ -11821,11 +11704,10 @@
       <c r="AX80" s="51"/>
       <c r="AY80" s="51"/>
       <c r="AZ80" s="51"/>
-      <c r="BA80" s="51"/>
-    </row>
-    <row r="81" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="26"/>
-      <c r="B81" s="97"/>
+      <c r="B81" s="107"/>
       <c r="C81" s="86"/>
       <c r="D81" s="87"/>
       <c r="E81" s="26"/>
@@ -11876,11 +11758,10 @@
       <c r="AX81" s="51"/>
       <c r="AY81" s="51"/>
       <c r="AZ81" s="51"/>
-      <c r="BA81" s="51"/>
-    </row>
-    <row r="82" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
-      <c r="B82" s="97"/>
+      <c r="B82" s="107"/>
       <c r="C82" s="86"/>
       <c r="D82" s="87"/>
       <c r="E82" s="26"/>
@@ -11931,11 +11812,10 @@
       <c r="AX82" s="51"/>
       <c r="AY82" s="51"/>
       <c r="AZ82" s="51"/>
-      <c r="BA82" s="51"/>
-    </row>
-    <row r="83" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="26"/>
-      <c r="B83" s="97"/>
+      <c r="B83" s="107"/>
       <c r="C83" s="86"/>
       <c r="D83" s="87"/>
       <c r="E83" s="26"/>
@@ -11986,11 +11866,10 @@
       <c r="AX83" s="51"/>
       <c r="AY83" s="51"/>
       <c r="AZ83" s="51"/>
-      <c r="BA83" s="51"/>
-    </row>
-    <row r="84" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
-      <c r="B84" s="97"/>
+      <c r="B84" s="107"/>
       <c r="C84" s="86"/>
       <c r="D84" s="87"/>
       <c r="E84" s="26"/>
@@ -12041,11 +11920,10 @@
       <c r="AX84" s="51"/>
       <c r="AY84" s="51"/>
       <c r="AZ84" s="51"/>
-      <c r="BA84" s="51"/>
-    </row>
-    <row r="85" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="26"/>
-      <c r="B85" s="97"/>
+      <c r="B85" s="107"/>
       <c r="C85" s="86"/>
       <c r="D85" s="87"/>
       <c r="E85" s="26"/>
@@ -12096,11 +11974,10 @@
       <c r="AX85" s="51"/>
       <c r="AY85" s="51"/>
       <c r="AZ85" s="51"/>
-      <c r="BA85" s="51"/>
-    </row>
-    <row r="86" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
-      <c r="B86" s="97"/>
+      <c r="B86" s="107"/>
       <c r="C86" s="86"/>
       <c r="D86" s="87"/>
       <c r="E86" s="26"/>
@@ -12151,11 +12028,10 @@
       <c r="AX86" s="51"/>
       <c r="AY86" s="51"/>
       <c r="AZ86" s="51"/>
-      <c r="BA86" s="51"/>
-    </row>
-    <row r="87" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="26"/>
-      <c r="B87" s="97"/>
+      <c r="B87" s="107"/>
       <c r="C87" s="86"/>
       <c r="D87" s="87"/>
       <c r="E87" s="26"/>
@@ -12206,11 +12082,10 @@
       <c r="AX87" s="51"/>
       <c r="AY87" s="51"/>
       <c r="AZ87" s="51"/>
-      <c r="BA87" s="51"/>
-    </row>
-    <row r="88" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
-      <c r="B88" s="97"/>
+      <c r="B88" s="107"/>
       <c r="C88" s="86"/>
       <c r="D88" s="87"/>
       <c r="E88" s="26"/>
@@ -12261,11 +12136,10 @@
       <c r="AX88" s="51"/>
       <c r="AY88" s="51"/>
       <c r="AZ88" s="51"/>
-      <c r="BA88" s="51"/>
-    </row>
-    <row r="89" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
-      <c r="B89" s="97"/>
+      <c r="B89" s="107"/>
       <c r="C89" s="86"/>
       <c r="D89" s="87"/>
       <c r="E89" s="26"/>
@@ -12316,11 +12190,10 @@
       <c r="AX89" s="51"/>
       <c r="AY89" s="51"/>
       <c r="AZ89" s="51"/>
-      <c r="BA89" s="51"/>
-    </row>
-    <row r="90" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
-      <c r="B90" s="97"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="86"/>
       <c r="D90" s="87"/>
       <c r="E90" s="26"/>
@@ -12371,11 +12244,10 @@
       <c r="AX90" s="51"/>
       <c r="AY90" s="51"/>
       <c r="AZ90" s="51"/>
-      <c r="BA90" s="51"/>
-    </row>
-    <row r="91" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="26"/>
-      <c r="B91" s="97"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="86"/>
       <c r="D91" s="87"/>
       <c r="E91" s="26"/>
@@ -12426,11 +12298,10 @@
       <c r="AX91" s="51"/>
       <c r="AY91" s="51"/>
       <c r="AZ91" s="51"/>
-      <c r="BA91" s="51"/>
-    </row>
-    <row r="92" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
-      <c r="B92" s="97"/>
+      <c r="B92" s="107"/>
       <c r="C92" s="86"/>
       <c r="D92" s="87"/>
       <c r="E92" s="26"/>
@@ -12481,11 +12352,10 @@
       <c r="AX92" s="51"/>
       <c r="AY92" s="51"/>
       <c r="AZ92" s="51"/>
-      <c r="BA92" s="51"/>
-    </row>
-    <row r="93" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
-      <c r="B93" s="97"/>
+      <c r="B93" s="107"/>
       <c r="C93" s="86"/>
       <c r="D93" s="87"/>
       <c r="E93" s="26"/>
@@ -12536,11 +12406,10 @@
       <c r="AX93" s="51"/>
       <c r="AY93" s="51"/>
       <c r="AZ93" s="51"/>
-      <c r="BA93" s="51"/>
-    </row>
-    <row r="94" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
-      <c r="B94" s="97"/>
+      <c r="B94" s="107"/>
       <c r="C94" s="86"/>
       <c r="D94" s="87"/>
       <c r="E94" s="26"/>
@@ -12591,11 +12460,10 @@
       <c r="AX94" s="51"/>
       <c r="AY94" s="51"/>
       <c r="AZ94" s="51"/>
-      <c r="BA94" s="51"/>
-    </row>
-    <row r="95" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
-      <c r="B95" s="97"/>
+      <c r="B95" s="107"/>
       <c r="C95" s="86"/>
       <c r="D95" s="87"/>
       <c r="E95" s="26"/>
@@ -12646,11 +12514,10 @@
       <c r="AX95" s="51"/>
       <c r="AY95" s="51"/>
       <c r="AZ95" s="51"/>
-      <c r="BA95" s="51"/>
-    </row>
-    <row r="96" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="26"/>
-      <c r="B96" s="97"/>
+      <c r="B96" s="107"/>
       <c r="C96" s="86"/>
       <c r="D96" s="87"/>
       <c r="E96" s="26"/>
@@ -12701,11 +12568,10 @@
       <c r="AX96" s="51"/>
       <c r="AY96" s="51"/>
       <c r="AZ96" s="51"/>
-      <c r="BA96" s="51"/>
-    </row>
-    <row r="97" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="26"/>
-      <c r="B97" s="97"/>
+      <c r="B97" s="107"/>
       <c r="C97" s="86"/>
       <c r="D97" s="87"/>
       <c r="E97" s="26"/>
@@ -12756,11 +12622,10 @@
       <c r="AX97" s="51"/>
       <c r="AY97" s="51"/>
       <c r="AZ97" s="51"/>
-      <c r="BA97" s="51"/>
-    </row>
-    <row r="98" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="26"/>
-      <c r="B98" s="97"/>
+      <c r="B98" s="107"/>
       <c r="C98" s="86"/>
       <c r="D98" s="87"/>
       <c r="E98" s="26"/>
@@ -12811,11 +12676,10 @@
       <c r="AX98" s="51"/>
       <c r="AY98" s="51"/>
       <c r="AZ98" s="51"/>
-      <c r="BA98" s="51"/>
-    </row>
-    <row r="99" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="26"/>
-      <c r="B99" s="97"/>
+      <c r="B99" s="107"/>
       <c r="C99" s="86"/>
       <c r="D99" s="87"/>
       <c r="E99" s="26"/>
@@ -12866,11 +12730,10 @@
       <c r="AX99" s="51"/>
       <c r="AY99" s="51"/>
       <c r="AZ99" s="51"/>
-      <c r="BA99" s="51"/>
-    </row>
-    <row r="100" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
-      <c r="B100" s="97"/>
+      <c r="B100" s="107"/>
       <c r="C100" s="86"/>
       <c r="D100" s="87"/>
       <c r="E100" s="26"/>
@@ -12921,11 +12784,10 @@
       <c r="AX100" s="51"/>
       <c r="AY100" s="51"/>
       <c r="AZ100" s="51"/>
-      <c r="BA100" s="51"/>
-    </row>
-    <row r="101" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="26"/>
-      <c r="B101" s="97"/>
+      <c r="B101" s="107"/>
       <c r="C101" s="86"/>
       <c r="D101" s="87"/>
       <c r="E101" s="26"/>
@@ -12976,11 +12838,10 @@
       <c r="AX101" s="51"/>
       <c r="AY101" s="51"/>
       <c r="AZ101" s="51"/>
-      <c r="BA101" s="51"/>
-    </row>
-    <row r="102" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="26"/>
-      <c r="B102" s="97"/>
+      <c r="B102" s="107"/>
       <c r="C102" s="86"/>
       <c r="D102" s="87"/>
       <c r="E102" s="26"/>
@@ -13031,11 +12892,10 @@
       <c r="AX102" s="51"/>
       <c r="AY102" s="51"/>
       <c r="AZ102" s="51"/>
-      <c r="BA102" s="51"/>
-    </row>
-    <row r="103" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="26"/>
-      <c r="B103" s="97"/>
+      <c r="B103" s="107"/>
       <c r="C103" s="86"/>
       <c r="D103" s="87"/>
       <c r="E103" s="26"/>
@@ -13086,11 +12946,10 @@
       <c r="AX103" s="51"/>
       <c r="AY103" s="51"/>
       <c r="AZ103" s="51"/>
-      <c r="BA103" s="51"/>
-    </row>
-    <row r="104" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="26"/>
-      <c r="B104" s="97"/>
+      <c r="B104" s="107"/>
       <c r="C104" s="86"/>
       <c r="D104" s="87"/>
       <c r="E104" s="26"/>
@@ -13141,11 +13000,10 @@
       <c r="AX104" s="51"/>
       <c r="AY104" s="51"/>
       <c r="AZ104" s="51"/>
-      <c r="BA104" s="51"/>
-    </row>
-    <row r="105" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="26"/>
-      <c r="B105" s="97"/>
+      <c r="B105" s="107"/>
       <c r="C105" s="86"/>
       <c r="D105" s="87"/>
       <c r="E105" s="26"/>
@@ -13196,11 +13054,10 @@
       <c r="AX105" s="51"/>
       <c r="AY105" s="51"/>
       <c r="AZ105" s="51"/>
-      <c r="BA105" s="51"/>
-    </row>
-    <row r="106" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="26"/>
-      <c r="B106" s="97"/>
+      <c r="B106" s="107"/>
       <c r="C106" s="86"/>
       <c r="D106" s="87"/>
       <c r="E106" s="26"/>
@@ -13251,11 +13108,10 @@
       <c r="AX106" s="51"/>
       <c r="AY106" s="51"/>
       <c r="AZ106" s="51"/>
-      <c r="BA106" s="51"/>
-    </row>
-    <row r="107" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="26"/>
-      <c r="B107" s="97"/>
+      <c r="B107" s="107"/>
       <c r="C107" s="86"/>
       <c r="D107" s="87"/>
       <c r="E107" s="26"/>
@@ -13306,11 +13162,10 @@
       <c r="AX107" s="51"/>
       <c r="AY107" s="51"/>
       <c r="AZ107" s="51"/>
-      <c r="BA107" s="51"/>
-    </row>
-    <row r="108" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="26"/>
-      <c r="B108" s="97"/>
+      <c r="B108" s="107"/>
       <c r="C108" s="86"/>
       <c r="D108" s="87"/>
       <c r="E108" s="26"/>
@@ -13361,11 +13216,10 @@
       <c r="AX108" s="51"/>
       <c r="AY108" s="51"/>
       <c r="AZ108" s="51"/>
-      <c r="BA108" s="51"/>
-    </row>
-    <row r="109" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="26"/>
-      <c r="B109" s="97"/>
+      <c r="B109" s="107"/>
       <c r="C109" s="86"/>
       <c r="D109" s="87"/>
       <c r="E109" s="26"/>
@@ -13416,11 +13270,10 @@
       <c r="AX109" s="51"/>
       <c r="AY109" s="51"/>
       <c r="AZ109" s="51"/>
-      <c r="BA109" s="51"/>
-    </row>
-    <row r="110" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="26"/>
-      <c r="B110" s="97"/>
+      <c r="B110" s="107"/>
       <c r="C110" s="86"/>
       <c r="D110" s="87"/>
       <c r="E110" s="26"/>
@@ -13471,11 +13324,10 @@
       <c r="AX110" s="51"/>
       <c r="AY110" s="51"/>
       <c r="AZ110" s="51"/>
-      <c r="BA110" s="51"/>
-    </row>
-    <row r="111" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="26"/>
-      <c r="B111" s="97"/>
+      <c r="B111" s="107"/>
       <c r="C111" s="86"/>
       <c r="D111" s="87"/>
       <c r="E111" s="26"/>
@@ -13526,11 +13378,10 @@
       <c r="AX111" s="51"/>
       <c r="AY111" s="51"/>
       <c r="AZ111" s="51"/>
-      <c r="BA111" s="51"/>
-    </row>
-    <row r="112" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="26"/>
-      <c r="B112" s="97"/>
+      <c r="B112" s="107"/>
       <c r="C112" s="86"/>
       <c r="D112" s="87"/>
       <c r="E112" s="26"/>
@@ -13581,11 +13432,10 @@
       <c r="AX112" s="51"/>
       <c r="AY112" s="51"/>
       <c r="AZ112" s="51"/>
-      <c r="BA112" s="51"/>
-    </row>
-    <row r="113" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="26"/>
-      <c r="B113" s="97"/>
+      <c r="B113" s="107"/>
       <c r="C113" s="86"/>
       <c r="D113" s="87"/>
       <c r="E113" s="26"/>
@@ -13636,11 +13486,10 @@
       <c r="AX113" s="51"/>
       <c r="AY113" s="51"/>
       <c r="AZ113" s="51"/>
-      <c r="BA113" s="51"/>
-    </row>
-    <row r="114" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="26"/>
-      <c r="B114" s="97"/>
+      <c r="B114" s="107"/>
       <c r="C114" s="86"/>
       <c r="D114" s="87"/>
       <c r="E114" s="26"/>
@@ -13691,11 +13540,10 @@
       <c r="AX114" s="51"/>
       <c r="AY114" s="51"/>
       <c r="AZ114" s="51"/>
-      <c r="BA114" s="51"/>
-    </row>
-    <row r="115" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="26"/>
-      <c r="B115" s="97"/>
+      <c r="B115" s="107"/>
       <c r="C115" s="86"/>
       <c r="D115" s="87"/>
       <c r="E115" s="26"/>
@@ -13746,11 +13594,10 @@
       <c r="AX115" s="51"/>
       <c r="AY115" s="51"/>
       <c r="AZ115" s="51"/>
-      <c r="BA115" s="51"/>
-    </row>
-    <row r="116" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="26"/>
-      <c r="B116" s="97"/>
+      <c r="B116" s="107"/>
       <c r="C116" s="86"/>
       <c r="D116" s="87"/>
       <c r="E116" s="26"/>
@@ -13801,11 +13648,10 @@
       <c r="AX116" s="51"/>
       <c r="AY116" s="51"/>
       <c r="AZ116" s="51"/>
-      <c r="BA116" s="51"/>
-    </row>
-    <row r="117" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="26"/>
-      <c r="B117" s="97"/>
+      <c r="B117" s="107"/>
       <c r="C117" s="86"/>
       <c r="D117" s="87"/>
       <c r="E117" s="26"/>
@@ -13856,11 +13702,10 @@
       <c r="AX117" s="51"/>
       <c r="AY117" s="51"/>
       <c r="AZ117" s="51"/>
-      <c r="BA117" s="51"/>
-    </row>
-    <row r="118" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="26"/>
-      <c r="B118" s="97"/>
+      <c r="B118" s="107"/>
       <c r="C118" s="86"/>
       <c r="D118" s="87"/>
       <c r="E118" s="26"/>
@@ -13911,11 +13756,10 @@
       <c r="AX118" s="51"/>
       <c r="AY118" s="51"/>
       <c r="AZ118" s="51"/>
-      <c r="BA118" s="51"/>
-    </row>
-    <row r="119" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="26"/>
-      <c r="B119" s="97"/>
+      <c r="B119" s="107"/>
       <c r="C119" s="86"/>
       <c r="D119" s="87"/>
       <c r="E119" s="26"/>
@@ -13966,11 +13810,10 @@
       <c r="AX119" s="51"/>
       <c r="AY119" s="51"/>
       <c r="AZ119" s="51"/>
-      <c r="BA119" s="51"/>
-    </row>
-    <row r="120" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="26"/>
-      <c r="B120" s="97"/>
+      <c r="B120" s="107"/>
       <c r="C120" s="86"/>
       <c r="D120" s="87"/>
       <c r="E120" s="26"/>
@@ -14021,11 +13864,10 @@
       <c r="AX120" s="51"/>
       <c r="AY120" s="51"/>
       <c r="AZ120" s="51"/>
-      <c r="BA120" s="51"/>
-    </row>
-    <row r="121" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="26"/>
-      <c r="B121" s="97"/>
+      <c r="B121" s="107"/>
       <c r="C121" s="86"/>
       <c r="D121" s="87"/>
       <c r="E121" s="26"/>
@@ -14076,11 +13918,10 @@
       <c r="AX121" s="51"/>
       <c r="AY121" s="51"/>
       <c r="AZ121" s="51"/>
-      <c r="BA121" s="51"/>
-    </row>
-    <row r="122" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="26"/>
-      <c r="B122" s="97"/>
+      <c r="B122" s="107"/>
       <c r="C122" s="86"/>
       <c r="D122" s="87"/>
       <c r="E122" s="26"/>
@@ -14131,11 +13972,10 @@
       <c r="AX122" s="51"/>
       <c r="AY122" s="51"/>
       <c r="AZ122" s="51"/>
-      <c r="BA122" s="51"/>
-    </row>
-    <row r="123" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="26"/>
-      <c r="B123" s="97"/>
+      <c r="B123" s="107"/>
       <c r="C123" s="86"/>
       <c r="D123" s="87"/>
       <c r="E123" s="26"/>
@@ -14186,11 +14026,10 @@
       <c r="AX123" s="51"/>
       <c r="AY123" s="51"/>
       <c r="AZ123" s="51"/>
-      <c r="BA123" s="51"/>
-    </row>
-    <row r="124" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="26"/>
-      <c r="B124" s="97"/>
+      <c r="B124" s="107"/>
       <c r="C124" s="86"/>
       <c r="D124" s="87"/>
       <c r="E124" s="26"/>
@@ -14241,11 +14080,10 @@
       <c r="AX124" s="51"/>
       <c r="AY124" s="51"/>
       <c r="AZ124" s="51"/>
-      <c r="BA124" s="51"/>
-    </row>
-    <row r="125" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="26"/>
-      <c r="B125" s="97"/>
+      <c r="B125" s="107"/>
       <c r="C125" s="86"/>
       <c r="D125" s="87"/>
       <c r="E125" s="26"/>
@@ -14296,11 +14134,10 @@
       <c r="AX125" s="51"/>
       <c r="AY125" s="51"/>
       <c r="AZ125" s="51"/>
-      <c r="BA125" s="51"/>
-    </row>
-    <row r="126" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="26"/>
-      <c r="B126" s="97"/>
+      <c r="B126" s="107"/>
       <c r="C126" s="86"/>
       <c r="D126" s="87"/>
       <c r="E126" s="26"/>
@@ -14351,11 +14188,10 @@
       <c r="AX126" s="51"/>
       <c r="AY126" s="51"/>
       <c r="AZ126" s="51"/>
-      <c r="BA126" s="51"/>
-    </row>
-    <row r="127" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="26"/>
-      <c r="B127" s="97"/>
+      <c r="B127" s="107"/>
       <c r="C127" s="86"/>
       <c r="D127" s="87"/>
       <c r="E127" s="26"/>
@@ -14406,11 +14242,10 @@
       <c r="AX127" s="51"/>
       <c r="AY127" s="51"/>
       <c r="AZ127" s="51"/>
-      <c r="BA127" s="51"/>
-    </row>
-    <row r="128" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="26"/>
-      <c r="B128" s="97"/>
+      <c r="B128" s="107"/>
       <c r="C128" s="86"/>
       <c r="D128" s="87"/>
       <c r="E128" s="26"/>
@@ -14461,11 +14296,10 @@
       <c r="AX128" s="51"/>
       <c r="AY128" s="51"/>
       <c r="AZ128" s="51"/>
-      <c r="BA128" s="51"/>
-    </row>
-    <row r="129" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="26"/>
-      <c r="B129" s="97"/>
+      <c r="B129" s="107"/>
       <c r="C129" s="86"/>
       <c r="D129" s="87"/>
       <c r="E129" s="26"/>
@@ -14516,11 +14350,10 @@
       <c r="AX129" s="51"/>
       <c r="AY129" s="51"/>
       <c r="AZ129" s="51"/>
-      <c r="BA129" s="51"/>
-    </row>
-    <row r="130" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="26"/>
-      <c r="B130" s="97"/>
+      <c r="B130" s="107"/>
       <c r="C130" s="86"/>
       <c r="D130" s="87"/>
       <c r="E130" s="26"/>
@@ -14571,11 +14404,10 @@
       <c r="AX130" s="51"/>
       <c r="AY130" s="51"/>
       <c r="AZ130" s="51"/>
-      <c r="BA130" s="51"/>
-    </row>
-    <row r="131" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="26"/>
-      <c r="B131" s="97"/>
+      <c r="B131" s="107"/>
       <c r="C131" s="86"/>
       <c r="D131" s="87"/>
       <c r="E131" s="26"/>
@@ -14626,11 +14458,10 @@
       <c r="AX131" s="51"/>
       <c r="AY131" s="51"/>
       <c r="AZ131" s="51"/>
-      <c r="BA131" s="51"/>
-    </row>
-    <row r="132" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="26"/>
-      <c r="B132" s="97"/>
+      <c r="B132" s="107"/>
       <c r="C132" s="86"/>
       <c r="D132" s="87"/>
       <c r="E132" s="26"/>
@@ -14681,11 +14512,10 @@
       <c r="AX132" s="51"/>
       <c r="AY132" s="51"/>
       <c r="AZ132" s="51"/>
-      <c r="BA132" s="51"/>
-    </row>
-    <row r="133" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="26"/>
-      <c r="B133" s="97"/>
+      <c r="B133" s="107"/>
       <c r="C133" s="86"/>
       <c r="D133" s="87"/>
       <c r="E133" s="26"/>
@@ -14736,11 +14566,10 @@
       <c r="AX133" s="51"/>
       <c r="AY133" s="51"/>
       <c r="AZ133" s="51"/>
-      <c r="BA133" s="51"/>
-    </row>
-    <row r="134" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="26"/>
-      <c r="B134" s="97"/>
+      <c r="B134" s="107"/>
       <c r="C134" s="86"/>
       <c r="D134" s="87"/>
       <c r="E134" s="26"/>
@@ -14791,11 +14620,10 @@
       <c r="AX134" s="51"/>
       <c r="AY134" s="51"/>
       <c r="AZ134" s="51"/>
-      <c r="BA134" s="51"/>
-    </row>
-    <row r="135" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="26"/>
-      <c r="B135" s="97"/>
+      <c r="B135" s="107"/>
       <c r="C135" s="86"/>
       <c r="D135" s="87"/>
       <c r="E135" s="26"/>
@@ -14846,11 +14674,10 @@
       <c r="AX135" s="51"/>
       <c r="AY135" s="51"/>
       <c r="AZ135" s="51"/>
-      <c r="BA135" s="51"/>
-    </row>
-    <row r="136" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="26"/>
-      <c r="B136" s="97"/>
+      <c r="B136" s="107"/>
       <c r="C136" s="86"/>
       <c r="D136" s="87"/>
       <c r="E136" s="26"/>
@@ -14901,11 +14728,10 @@
       <c r="AX136" s="51"/>
       <c r="AY136" s="51"/>
       <c r="AZ136" s="51"/>
-      <c r="BA136" s="51"/>
-    </row>
-    <row r="137" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="26"/>
-      <c r="B137" s="97"/>
+      <c r="B137" s="107"/>
       <c r="C137" s="86"/>
       <c r="D137" s="87"/>
       <c r="E137" s="26"/>
@@ -14956,11 +14782,10 @@
       <c r="AX137" s="51"/>
       <c r="AY137" s="51"/>
       <c r="AZ137" s="51"/>
-      <c r="BA137" s="51"/>
-    </row>
-    <row r="138" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="26"/>
-      <c r="B138" s="97"/>
+      <c r="B138" s="107"/>
       <c r="C138" s="86"/>
       <c r="D138" s="87"/>
       <c r="E138" s="26"/>
@@ -15011,11 +14836,10 @@
       <c r="AX138" s="51"/>
       <c r="AY138" s="51"/>
       <c r="AZ138" s="51"/>
-      <c r="BA138" s="51"/>
-    </row>
-    <row r="139" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="26"/>
-      <c r="B139" s="97"/>
+      <c r="B139" s="107"/>
       <c r="C139" s="86"/>
       <c r="D139" s="87"/>
       <c r="E139" s="26"/>
@@ -15066,11 +14890,10 @@
       <c r="AX139" s="51"/>
       <c r="AY139" s="51"/>
       <c r="AZ139" s="51"/>
-      <c r="BA139" s="51"/>
-    </row>
-    <row r="140" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="26"/>
-      <c r="B140" s="97"/>
+      <c r="B140" s="107"/>
       <c r="C140" s="86"/>
       <c r="D140" s="87"/>
       <c r="E140" s="26"/>
@@ -15121,11 +14944,10 @@
       <c r="AX140" s="51"/>
       <c r="AY140" s="51"/>
       <c r="AZ140" s="51"/>
-      <c r="BA140" s="51"/>
-    </row>
-    <row r="141" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="26"/>
-      <c r="B141" s="97"/>
+      <c r="B141" s="107"/>
       <c r="C141" s="86"/>
       <c r="D141" s="87"/>
       <c r="E141" s="26"/>
@@ -15176,11 +14998,10 @@
       <c r="AX141" s="51"/>
       <c r="AY141" s="51"/>
       <c r="AZ141" s="51"/>
-      <c r="BA141" s="51"/>
-    </row>
-    <row r="142" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="26"/>
-      <c r="B142" s="97"/>
+      <c r="B142" s="107"/>
       <c r="C142" s="86"/>
       <c r="D142" s="87"/>
       <c r="E142" s="26"/>
@@ -15231,11 +15052,10 @@
       <c r="AX142" s="51"/>
       <c r="AY142" s="51"/>
       <c r="AZ142" s="51"/>
-      <c r="BA142" s="51"/>
-    </row>
-    <row r="143" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="26"/>
-      <c r="B143" s="97"/>
+      <c r="B143" s="107"/>
       <c r="C143" s="86"/>
       <c r="D143" s="87"/>
       <c r="E143" s="26"/>
@@ -15286,11 +15106,10 @@
       <c r="AX143" s="51"/>
       <c r="AY143" s="51"/>
       <c r="AZ143" s="51"/>
-      <c r="BA143" s="51"/>
-    </row>
-    <row r="144" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="26"/>
-      <c r="B144" s="97"/>
+      <c r="B144" s="107"/>
       <c r="C144" s="86"/>
       <c r="D144" s="87"/>
       <c r="E144" s="26"/>
@@ -15341,11 +15160,10 @@
       <c r="AX144" s="51"/>
       <c r="AY144" s="51"/>
       <c r="AZ144" s="51"/>
-      <c r="BA144" s="51"/>
-    </row>
-    <row r="145" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="26"/>
-      <c r="B145" s="97"/>
+      <c r="B145" s="107"/>
       <c r="C145" s="86"/>
       <c r="D145" s="87"/>
       <c r="E145" s="26"/>
@@ -15396,11 +15214,10 @@
       <c r="AX145" s="51"/>
       <c r="AY145" s="51"/>
       <c r="AZ145" s="51"/>
-      <c r="BA145" s="51"/>
-    </row>
-    <row r="146" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="26"/>
-      <c r="B146" s="97"/>
+      <c r="B146" s="107"/>
       <c r="C146" s="86"/>
       <c r="D146" s="87"/>
       <c r="E146" s="26"/>
@@ -15451,11 +15268,10 @@
       <c r="AX146" s="51"/>
       <c r="AY146" s="51"/>
       <c r="AZ146" s="51"/>
-      <c r="BA146" s="51"/>
-    </row>
-    <row r="147" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="26"/>
-      <c r="B147" s="97"/>
+      <c r="B147" s="107"/>
       <c r="C147" s="86"/>
       <c r="D147" s="87"/>
       <c r="E147" s="26"/>
@@ -15506,11 +15322,10 @@
       <c r="AX147" s="51"/>
       <c r="AY147" s="51"/>
       <c r="AZ147" s="51"/>
-      <c r="BA147" s="51"/>
-    </row>
-    <row r="148" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="26"/>
-      <c r="B148" s="97"/>
+      <c r="B148" s="107"/>
       <c r="C148" s="86"/>
       <c r="D148" s="87"/>
       <c r="E148" s="26"/>
@@ -15561,11 +15376,10 @@
       <c r="AX148" s="51"/>
       <c r="AY148" s="51"/>
       <c r="AZ148" s="51"/>
-      <c r="BA148" s="51"/>
-    </row>
-    <row r="149" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="26"/>
-      <c r="B149" s="97"/>
+      <c r="B149" s="107"/>
       <c r="C149" s="86"/>
       <c r="D149" s="87"/>
       <c r="E149" s="26"/>
@@ -15616,11 +15430,10 @@
       <c r="AX149" s="51"/>
       <c r="AY149" s="51"/>
       <c r="AZ149" s="51"/>
-      <c r="BA149" s="51"/>
-    </row>
-    <row r="150" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="26"/>
-      <c r="B150" s="97"/>
+      <c r="B150" s="107"/>
       <c r="C150" s="86"/>
       <c r="D150" s="87"/>
       <c r="E150" s="26"/>
@@ -15671,11 +15484,10 @@
       <c r="AX150" s="51"/>
       <c r="AY150" s="51"/>
       <c r="AZ150" s="51"/>
-      <c r="BA150" s="51"/>
-    </row>
-    <row r="151" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="26"/>
-      <c r="B151" s="97"/>
+      <c r="B151" s="107"/>
       <c r="C151" s="86"/>
       <c r="D151" s="87"/>
       <c r="E151" s="26"/>
@@ -15726,11 +15538,10 @@
       <c r="AX151" s="51"/>
       <c r="AY151" s="51"/>
       <c r="AZ151" s="51"/>
-      <c r="BA151" s="51"/>
-    </row>
-    <row r="152" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="26"/>
-      <c r="B152" s="97"/>
+      <c r="B152" s="107"/>
       <c r="C152" s="86"/>
       <c r="D152" s="87"/>
       <c r="E152" s="26"/>
@@ -15781,11 +15592,10 @@
       <c r="AX152" s="51"/>
       <c r="AY152" s="51"/>
       <c r="AZ152" s="51"/>
-      <c r="BA152" s="51"/>
-    </row>
-    <row r="153" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="26"/>
-      <c r="B153" s="97"/>
+      <c r="B153" s="107"/>
       <c r="C153" s="86"/>
       <c r="D153" s="87"/>
       <c r="E153" s="26"/>
@@ -15836,11 +15646,10 @@
       <c r="AX153" s="51"/>
       <c r="AY153" s="51"/>
       <c r="AZ153" s="51"/>
-      <c r="BA153" s="51"/>
-    </row>
-    <row r="154" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="26"/>
-      <c r="B154" s="97"/>
+      <c r="B154" s="107"/>
       <c r="C154" s="86"/>
       <c r="D154" s="87"/>
       <c r="E154" s="26"/>
@@ -15891,11 +15700,10 @@
       <c r="AX154" s="51"/>
       <c r="AY154" s="51"/>
       <c r="AZ154" s="51"/>
-      <c r="BA154" s="51"/>
-    </row>
-    <row r="155" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="26"/>
-      <c r="B155" s="97"/>
+      <c r="B155" s="107"/>
       <c r="C155" s="86"/>
       <c r="D155" s="87"/>
       <c r="E155" s="26"/>
@@ -15946,11 +15754,10 @@
       <c r="AX155" s="51"/>
       <c r="AY155" s="51"/>
       <c r="AZ155" s="51"/>
-      <c r="BA155" s="51"/>
-    </row>
-    <row r="156" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="26"/>
-      <c r="B156" s="97"/>
+      <c r="B156" s="107"/>
       <c r="C156" s="86"/>
       <c r="D156" s="87"/>
       <c r="E156" s="26"/>
@@ -16001,11 +15808,10 @@
       <c r="AX156" s="51"/>
       <c r="AY156" s="51"/>
       <c r="AZ156" s="51"/>
-      <c r="BA156" s="51"/>
-    </row>
-    <row r="157" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="26"/>
-      <c r="B157" s="97"/>
+      <c r="B157" s="107"/>
       <c r="C157" s="86"/>
       <c r="D157" s="87"/>
       <c r="E157" s="26"/>
@@ -16056,11 +15862,10 @@
       <c r="AX157" s="51"/>
       <c r="AY157" s="51"/>
       <c r="AZ157" s="51"/>
-      <c r="BA157" s="51"/>
-    </row>
-    <row r="158" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="26"/>
-      <c r="B158" s="97"/>
+      <c r="B158" s="107"/>
       <c r="C158" s="86"/>
       <c r="D158" s="87"/>
       <c r="E158" s="26"/>
@@ -16111,11 +15916,10 @@
       <c r="AX158" s="51"/>
       <c r="AY158" s="51"/>
       <c r="AZ158" s="51"/>
-      <c r="BA158" s="51"/>
-    </row>
-    <row r="159" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="26"/>
-      <c r="B159" s="97"/>
+      <c r="B159" s="107"/>
       <c r="C159" s="86"/>
       <c r="D159" s="87"/>
       <c r="E159" s="26"/>
@@ -16166,11 +15970,10 @@
       <c r="AX159" s="51"/>
       <c r="AY159" s="51"/>
       <c r="AZ159" s="51"/>
-      <c r="BA159" s="51"/>
-    </row>
-    <row r="160" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="26"/>
-      <c r="B160" s="97"/>
+      <c r="B160" s="107"/>
       <c r="C160" s="86"/>
       <c r="D160" s="87"/>
       <c r="E160" s="26"/>
@@ -16221,11 +16024,10 @@
       <c r="AX160" s="51"/>
       <c r="AY160" s="51"/>
       <c r="AZ160" s="51"/>
-      <c r="BA160" s="51"/>
-    </row>
-    <row r="161" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="26"/>
-      <c r="B161" s="97"/>
+      <c r="B161" s="107"/>
       <c r="C161" s="86"/>
       <c r="D161" s="87"/>
       <c r="E161" s="26"/>
@@ -16276,11 +16078,10 @@
       <c r="AX161" s="51"/>
       <c r="AY161" s="51"/>
       <c r="AZ161" s="51"/>
-      <c r="BA161" s="51"/>
-    </row>
-    <row r="162" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="26"/>
-      <c r="B162" s="97"/>
+      <c r="B162" s="107"/>
       <c r="C162" s="86"/>
       <c r="D162" s="87"/>
       <c r="E162" s="26"/>
@@ -16331,11 +16132,10 @@
       <c r="AX162" s="51"/>
       <c r="AY162" s="51"/>
       <c r="AZ162" s="51"/>
-      <c r="BA162" s="51"/>
-    </row>
-    <row r="163" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="26"/>
-      <c r="B163" s="97"/>
+      <c r="B163" s="107"/>
       <c r="C163" s="86"/>
       <c r="D163" s="87"/>
       <c r="E163" s="26"/>
@@ -16386,11 +16186,10 @@
       <c r="AX163" s="51"/>
       <c r="AY163" s="51"/>
       <c r="AZ163" s="51"/>
-      <c r="BA163" s="51"/>
-    </row>
-    <row r="164" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="26"/>
-      <c r="B164" s="97"/>
+      <c r="B164" s="107"/>
       <c r="C164" s="86"/>
       <c r="D164" s="87"/>
       <c r="E164" s="26"/>
@@ -16441,11 +16240,10 @@
       <c r="AX164" s="51"/>
       <c r="AY164" s="51"/>
       <c r="AZ164" s="51"/>
-      <c r="BA164" s="51"/>
-    </row>
-    <row r="165" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="26"/>
-      <c r="B165" s="97"/>
+      <c r="B165" s="107"/>
       <c r="C165" s="86"/>
       <c r="D165" s="87"/>
       <c r="E165" s="26"/>
@@ -16496,11 +16294,10 @@
       <c r="AX165" s="51"/>
       <c r="AY165" s="51"/>
       <c r="AZ165" s="51"/>
-      <c r="BA165" s="51"/>
-    </row>
-    <row r="166" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="26"/>
-      <c r="B166" s="97"/>
+      <c r="B166" s="107"/>
       <c r="C166" s="86"/>
       <c r="D166" s="87"/>
       <c r="E166" s="26"/>
@@ -16551,11 +16348,10 @@
       <c r="AX166" s="51"/>
       <c r="AY166" s="51"/>
       <c r="AZ166" s="51"/>
-      <c r="BA166" s="51"/>
-    </row>
-    <row r="167" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="26"/>
-      <c r="B167" s="97"/>
+      <c r="B167" s="107"/>
       <c r="C167" s="86"/>
       <c r="D167" s="87"/>
       <c r="E167" s="26"/>
@@ -16606,11 +16402,10 @@
       <c r="AX167" s="51"/>
       <c r="AY167" s="51"/>
       <c r="AZ167" s="51"/>
-      <c r="BA167" s="51"/>
-    </row>
-    <row r="168" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="26"/>
-      <c r="B168" s="97"/>
+      <c r="B168" s="107"/>
       <c r="C168" s="86"/>
       <c r="D168" s="87"/>
       <c r="E168" s="26"/>
@@ -16661,11 +16456,10 @@
       <c r="AX168" s="51"/>
       <c r="AY168" s="51"/>
       <c r="AZ168" s="51"/>
-      <c r="BA168" s="51"/>
-    </row>
-    <row r="169" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="26"/>
-      <c r="B169" s="97"/>
+      <c r="B169" s="107"/>
       <c r="C169" s="86"/>
       <c r="D169" s="87"/>
       <c r="E169" s="26"/>
@@ -16716,11 +16510,10 @@
       <c r="AX169" s="51"/>
       <c r="AY169" s="51"/>
       <c r="AZ169" s="51"/>
-      <c r="BA169" s="51"/>
-    </row>
-    <row r="170" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="26"/>
-      <c r="B170" s="97"/>
+      <c r="B170" s="107"/>
       <c r="C170" s="86"/>
       <c r="D170" s="87"/>
       <c r="E170" s="26"/>
@@ -16771,11 +16564,10 @@
       <c r="AX170" s="51"/>
       <c r="AY170" s="51"/>
       <c r="AZ170" s="51"/>
-      <c r="BA170" s="51"/>
-    </row>
-    <row r="171" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="26"/>
-      <c r="B171" s="97"/>
+      <c r="B171" s="107"/>
       <c r="C171" s="86"/>
       <c r="D171" s="87"/>
       <c r="E171" s="26"/>
@@ -16826,11 +16618,10 @@
       <c r="AX171" s="51"/>
       <c r="AY171" s="51"/>
       <c r="AZ171" s="51"/>
-      <c r="BA171" s="51"/>
-    </row>
-    <row r="172" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="26"/>
-      <c r="B172" s="97"/>
+      <c r="B172" s="107"/>
       <c r="C172" s="86"/>
       <c r="D172" s="87"/>
       <c r="E172" s="26"/>
@@ -16881,11 +16672,10 @@
       <c r="AX172" s="51"/>
       <c r="AY172" s="51"/>
       <c r="AZ172" s="51"/>
-      <c r="BA172" s="51"/>
-    </row>
-    <row r="173" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="26"/>
-      <c r="B173" s="97"/>
+      <c r="B173" s="107"/>
       <c r="C173" s="86"/>
       <c r="D173" s="87"/>
       <c r="E173" s="26"/>
@@ -16936,11 +16726,10 @@
       <c r="AX173" s="51"/>
       <c r="AY173" s="51"/>
       <c r="AZ173" s="51"/>
-      <c r="BA173" s="51"/>
-    </row>
-    <row r="174" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="26"/>
-      <c r="B174" s="97"/>
+      <c r="B174" s="107"/>
       <c r="C174" s="86"/>
       <c r="D174" s="87"/>
       <c r="E174" s="26"/>
@@ -16991,11 +16780,10 @@
       <c r="AX174" s="51"/>
       <c r="AY174" s="51"/>
       <c r="AZ174" s="51"/>
-      <c r="BA174" s="51"/>
-    </row>
-    <row r="175" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="26"/>
-      <c r="B175" s="97"/>
+      <c r="B175" s="107"/>
       <c r="C175" s="86"/>
       <c r="D175" s="87"/>
       <c r="E175" s="26"/>
@@ -17046,11 +16834,10 @@
       <c r="AX175" s="51"/>
       <c r="AY175" s="51"/>
       <c r="AZ175" s="51"/>
-      <c r="BA175" s="51"/>
-    </row>
-    <row r="176" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="26"/>
-      <c r="B176" s="97"/>
+      <c r="B176" s="107"/>
       <c r="C176" s="86"/>
       <c r="D176" s="87"/>
       <c r="E176" s="26"/>
@@ -17101,11 +16888,10 @@
       <c r="AX176" s="51"/>
       <c r="AY176" s="51"/>
       <c r="AZ176" s="51"/>
-      <c r="BA176" s="51"/>
-    </row>
-    <row r="177" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="26"/>
-      <c r="B177" s="97"/>
+      <c r="B177" s="107"/>
       <c r="C177" s="86"/>
       <c r="D177" s="87"/>
       <c r="E177" s="26"/>
@@ -17156,11 +16942,10 @@
       <c r="AX177" s="51"/>
       <c r="AY177" s="51"/>
       <c r="AZ177" s="51"/>
-      <c r="BA177" s="51"/>
-    </row>
-    <row r="178" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="26"/>
-      <c r="B178" s="97"/>
+      <c r="B178" s="107"/>
       <c r="C178" s="86"/>
       <c r="D178" s="87"/>
       <c r="E178" s="26"/>
@@ -17211,11 +16996,10 @@
       <c r="AX178" s="51"/>
       <c r="AY178" s="51"/>
       <c r="AZ178" s="51"/>
-      <c r="BA178" s="51"/>
-    </row>
-    <row r="179" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="26"/>
-      <c r="B179" s="97"/>
+      <c r="B179" s="107"/>
       <c r="C179" s="86"/>
       <c r="D179" s="87"/>
       <c r="E179" s="26"/>
@@ -17266,11 +17050,10 @@
       <c r="AX179" s="51"/>
       <c r="AY179" s="51"/>
       <c r="AZ179" s="51"/>
-      <c r="BA179" s="51"/>
-    </row>
-    <row r="180" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="26"/>
-      <c r="B180" s="97"/>
+      <c r="B180" s="107"/>
       <c r="C180" s="86"/>
       <c r="D180" s="87"/>
       <c r="E180" s="26"/>
@@ -17321,11 +17104,10 @@
       <c r="AX180" s="51"/>
       <c r="AY180" s="51"/>
       <c r="AZ180" s="51"/>
-      <c r="BA180" s="51"/>
-    </row>
-    <row r="181" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="26"/>
-      <c r="B181" s="97"/>
+      <c r="B181" s="107"/>
       <c r="C181" s="86"/>
       <c r="D181" s="87"/>
       <c r="E181" s="26"/>
@@ -17376,11 +17158,10 @@
       <c r="AX181" s="51"/>
       <c r="AY181" s="51"/>
       <c r="AZ181" s="51"/>
-      <c r="BA181" s="51"/>
-    </row>
-    <row r="182" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="26"/>
-      <c r="B182" s="97"/>
+      <c r="B182" s="107"/>
       <c r="C182" s="86"/>
       <c r="D182" s="87"/>
       <c r="E182" s="26"/>
@@ -17431,11 +17212,10 @@
       <c r="AX182" s="51"/>
       <c r="AY182" s="51"/>
       <c r="AZ182" s="51"/>
-      <c r="BA182" s="51"/>
-    </row>
-    <row r="183" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="26"/>
-      <c r="B183" s="97"/>
+      <c r="B183" s="107"/>
       <c r="C183" s="86"/>
       <c r="D183" s="87"/>
       <c r="E183" s="26"/>
@@ -17486,11 +17266,10 @@
       <c r="AX183" s="51"/>
       <c r="AY183" s="51"/>
       <c r="AZ183" s="51"/>
-      <c r="BA183" s="51"/>
-    </row>
-    <row r="184" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="26"/>
-      <c r="B184" s="97"/>
+      <c r="B184" s="107"/>
       <c r="C184" s="86"/>
       <c r="D184" s="87"/>
       <c r="E184" s="26"/>
@@ -17541,11 +17320,10 @@
       <c r="AX184" s="51"/>
       <c r="AY184" s="51"/>
       <c r="AZ184" s="51"/>
-      <c r="BA184" s="51"/>
-    </row>
-    <row r="185" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="26"/>
-      <c r="B185" s="97"/>
+      <c r="B185" s="107"/>
       <c r="C185" s="86"/>
       <c r="D185" s="87"/>
       <c r="E185" s="26"/>
@@ -17596,11 +17374,10 @@
       <c r="AX185" s="51"/>
       <c r="AY185" s="51"/>
       <c r="AZ185" s="51"/>
-      <c r="BA185" s="51"/>
-    </row>
-    <row r="186" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="26"/>
-      <c r="B186" s="97"/>
+      <c r="B186" s="107"/>
       <c r="C186" s="86"/>
       <c r="D186" s="87"/>
       <c r="E186" s="26"/>
@@ -17651,11 +17428,10 @@
       <c r="AX186" s="51"/>
       <c r="AY186" s="51"/>
       <c r="AZ186" s="51"/>
-      <c r="BA186" s="51"/>
-    </row>
-    <row r="187" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="26"/>
-      <c r="B187" s="97"/>
+      <c r="B187" s="107"/>
       <c r="C187" s="86"/>
       <c r="D187" s="87"/>
       <c r="E187" s="26"/>
@@ -17706,11 +17482,10 @@
       <c r="AX187" s="51"/>
       <c r="AY187" s="51"/>
       <c r="AZ187" s="51"/>
-      <c r="BA187" s="51"/>
-    </row>
-    <row r="188" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="26"/>
-      <c r="B188" s="97"/>
+      <c r="B188" s="107"/>
       <c r="C188" s="86"/>
       <c r="D188" s="87"/>
       <c r="E188" s="26"/>
@@ -17761,11 +17536,10 @@
       <c r="AX188" s="51"/>
       <c r="AY188" s="51"/>
       <c r="AZ188" s="51"/>
-      <c r="BA188" s="51"/>
-    </row>
-    <row r="189" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="26"/>
-      <c r="B189" s="97"/>
+      <c r="B189" s="107"/>
       <c r="C189" s="86"/>
       <c r="D189" s="87"/>
       <c r="E189" s="26"/>
@@ -17816,11 +17590,10 @@
       <c r="AX189" s="51"/>
       <c r="AY189" s="51"/>
       <c r="AZ189" s="51"/>
-      <c r="BA189" s="51"/>
-    </row>
-    <row r="190" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="26"/>
-      <c r="B190" s="97"/>
+      <c r="B190" s="107"/>
       <c r="C190" s="86"/>
       <c r="D190" s="87"/>
       <c r="E190" s="26"/>
@@ -17871,11 +17644,10 @@
       <c r="AX190" s="51"/>
       <c r="AY190" s="51"/>
       <c r="AZ190" s="51"/>
-      <c r="BA190" s="51"/>
-    </row>
-    <row r="191" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="26"/>
-      <c r="B191" s="97"/>
+      <c r="B191" s="107"/>
       <c r="C191" s="86"/>
       <c r="D191" s="87"/>
       <c r="E191" s="26"/>
@@ -17926,11 +17698,10 @@
       <c r="AX191" s="51"/>
       <c r="AY191" s="51"/>
       <c r="AZ191" s="51"/>
-      <c r="BA191" s="51"/>
-    </row>
-    <row r="192" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="26"/>
-      <c r="B192" s="97"/>
+      <c r="B192" s="107"/>
       <c r="C192" s="86"/>
       <c r="D192" s="87"/>
       <c r="E192" s="26"/>
@@ -17981,11 +17752,10 @@
       <c r="AX192" s="51"/>
       <c r="AY192" s="51"/>
       <c r="AZ192" s="51"/>
-      <c r="BA192" s="51"/>
-    </row>
-    <row r="193" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="26"/>
-      <c r="B193" s="97"/>
+      <c r="B193" s="107"/>
       <c r="C193" s="86"/>
       <c r="D193" s="87"/>
       <c r="E193" s="26"/>
@@ -18036,11 +17806,10 @@
       <c r="AX193" s="51"/>
       <c r="AY193" s="51"/>
       <c r="AZ193" s="51"/>
-      <c r="BA193" s="51"/>
-    </row>
-    <row r="194" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="26"/>
-      <c r="B194" s="97"/>
+      <c r="B194" s="107"/>
       <c r="C194" s="86"/>
       <c r="D194" s="87"/>
       <c r="E194" s="26"/>
@@ -18091,11 +17860,10 @@
       <c r="AX194" s="51"/>
       <c r="AY194" s="51"/>
       <c r="AZ194" s="51"/>
-      <c r="BA194" s="51"/>
-    </row>
-    <row r="195" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="26"/>
-      <c r="B195" s="97"/>
+      <c r="B195" s="107"/>
       <c r="C195" s="86"/>
       <c r="D195" s="87"/>
       <c r="E195" s="26"/>
@@ -18146,11 +17914,10 @@
       <c r="AX195" s="51"/>
       <c r="AY195" s="51"/>
       <c r="AZ195" s="51"/>
-      <c r="BA195" s="51"/>
-    </row>
-    <row r="196" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="26"/>
-      <c r="B196" s="97"/>
+      <c r="B196" s="107"/>
       <c r="C196" s="86"/>
       <c r="D196" s="87"/>
       <c r="E196" s="26"/>
@@ -18201,11 +17968,10 @@
       <c r="AX196" s="51"/>
       <c r="AY196" s="51"/>
       <c r="AZ196" s="51"/>
-      <c r="BA196" s="51"/>
-    </row>
-    <row r="197" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="26"/>
-      <c r="B197" s="97"/>
+      <c r="B197" s="107"/>
       <c r="C197" s="86"/>
       <c r="D197" s="87"/>
       <c r="E197" s="26"/>
@@ -18256,11 +18022,10 @@
       <c r="AX197" s="51"/>
       <c r="AY197" s="51"/>
       <c r="AZ197" s="51"/>
-      <c r="BA197" s="51"/>
-    </row>
-    <row r="198" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="26"/>
-      <c r="B198" s="97"/>
+      <c r="B198" s="107"/>
       <c r="C198" s="86"/>
       <c r="D198" s="87"/>
       <c r="E198" s="26"/>
@@ -18311,11 +18076,10 @@
       <c r="AX198" s="51"/>
       <c r="AY198" s="51"/>
       <c r="AZ198" s="51"/>
-      <c r="BA198" s="51"/>
-    </row>
-    <row r="199" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="26"/>
-      <c r="B199" s="97"/>
+      <c r="B199" s="107"/>
       <c r="C199" s="86"/>
       <c r="D199" s="87"/>
       <c r="E199" s="26"/>
@@ -18366,11 +18130,10 @@
       <c r="AX199" s="51"/>
       <c r="AY199" s="51"/>
       <c r="AZ199" s="51"/>
-      <c r="BA199" s="51"/>
-    </row>
-    <row r="200" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="26"/>
-      <c r="B200" s="97"/>
+      <c r="B200" s="107"/>
       <c r="C200" s="86"/>
       <c r="D200" s="87"/>
       <c r="E200" s="26"/>
@@ -18421,11 +18184,10 @@
       <c r="AX200" s="51"/>
       <c r="AY200" s="51"/>
       <c r="AZ200" s="51"/>
-      <c r="BA200" s="51"/>
-    </row>
-    <row r="201" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="26"/>
-      <c r="B201" s="97"/>
+      <c r="B201" s="107"/>
       <c r="C201" s="86"/>
       <c r="D201" s="87"/>
       <c r="E201" s="26"/>
@@ -18476,11 +18238,10 @@
       <c r="AX201" s="51"/>
       <c r="AY201" s="51"/>
       <c r="AZ201" s="51"/>
-      <c r="BA201" s="51"/>
-    </row>
-    <row r="202" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="26"/>
-      <c r="B202" s="97"/>
+      <c r="B202" s="107"/>
       <c r="C202" s="86"/>
       <c r="D202" s="87"/>
       <c r="E202" s="26"/>
@@ -18531,11 +18292,10 @@
       <c r="AX202" s="51"/>
       <c r="AY202" s="51"/>
       <c r="AZ202" s="51"/>
-      <c r="BA202" s="51"/>
-    </row>
-    <row r="203" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="26"/>
-      <c r="B203" s="97"/>
+      <c r="B203" s="107"/>
       <c r="C203" s="86"/>
       <c r="D203" s="87"/>
       <c r="E203" s="26"/>
@@ -18586,11 +18346,10 @@
       <c r="AX203" s="51"/>
       <c r="AY203" s="51"/>
       <c r="AZ203" s="51"/>
-      <c r="BA203" s="51"/>
-    </row>
-    <row r="204" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="26"/>
-      <c r="B204" s="97"/>
+      <c r="B204" s="107"/>
       <c r="C204" s="86"/>
       <c r="D204" s="87"/>
       <c r="E204" s="26"/>
@@ -18641,11 +18400,10 @@
       <c r="AX204" s="51"/>
       <c r="AY204" s="51"/>
       <c r="AZ204" s="51"/>
-      <c r="BA204" s="51"/>
-    </row>
-    <row r="205" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="26"/>
-      <c r="B205" s="97"/>
+      <c r="B205" s="107"/>
       <c r="C205" s="86"/>
       <c r="D205" s="87"/>
       <c r="E205" s="26"/>
@@ -18696,11 +18454,10 @@
       <c r="AX205" s="51"/>
       <c r="AY205" s="51"/>
       <c r="AZ205" s="51"/>
-      <c r="BA205" s="51"/>
-    </row>
-    <row r="206" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="26"/>
-      <c r="B206" s="97"/>
+      <c r="B206" s="107"/>
       <c r="C206" s="86"/>
       <c r="D206" s="87"/>
       <c r="E206" s="26"/>
@@ -18751,11 +18508,10 @@
       <c r="AX206" s="51"/>
       <c r="AY206" s="51"/>
       <c r="AZ206" s="51"/>
-      <c r="BA206" s="51"/>
-    </row>
-    <row r="207" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="26"/>
-      <c r="B207" s="97"/>
+      <c r="B207" s="107"/>
       <c r="C207" s="86"/>
       <c r="D207" s="87"/>
       <c r="E207" s="26"/>
@@ -18806,11 +18562,10 @@
       <c r="AX207" s="51"/>
       <c r="AY207" s="51"/>
       <c r="AZ207" s="51"/>
-      <c r="BA207" s="51"/>
-    </row>
-    <row r="208" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="26"/>
-      <c r="B208" s="97"/>
+      <c r="B208" s="107"/>
       <c r="C208" s="86"/>
       <c r="D208" s="87"/>
       <c r="E208" s="26"/>
@@ -18861,11 +18616,10 @@
       <c r="AX208" s="51"/>
       <c r="AY208" s="51"/>
       <c r="AZ208" s="51"/>
-      <c r="BA208" s="51"/>
-    </row>
-    <row r="209" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="26"/>
-      <c r="B209" s="97"/>
+      <c r="B209" s="107"/>
       <c r="C209" s="86"/>
       <c r="D209" s="87"/>
       <c r="E209" s="26"/>
@@ -18916,11 +18670,10 @@
       <c r="AX209" s="51"/>
       <c r="AY209" s="51"/>
       <c r="AZ209" s="51"/>
-      <c r="BA209" s="51"/>
-    </row>
-    <row r="210" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="26"/>
-      <c r="B210" s="97"/>
+      <c r="B210" s="107"/>
       <c r="C210" s="86"/>
       <c r="D210" s="87"/>
       <c r="E210" s="26"/>
@@ -18971,11 +18724,10 @@
       <c r="AX210" s="51"/>
       <c r="AY210" s="51"/>
       <c r="AZ210" s="51"/>
-      <c r="BA210" s="51"/>
-    </row>
-    <row r="211" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="26"/>
-      <c r="B211" s="97"/>
+      <c r="B211" s="107"/>
       <c r="C211" s="86"/>
       <c r="D211" s="87"/>
       <c r="E211" s="26"/>
@@ -19026,11 +18778,10 @@
       <c r="AX211" s="51"/>
       <c r="AY211" s="51"/>
       <c r="AZ211" s="51"/>
-      <c r="BA211" s="51"/>
-    </row>
-    <row r="212" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="26"/>
-      <c r="B212" s="97"/>
+      <c r="B212" s="107"/>
       <c r="C212" s="86"/>
       <c r="D212" s="87"/>
       <c r="E212" s="26"/>
@@ -19081,11 +18832,10 @@
       <c r="AX212" s="51"/>
       <c r="AY212" s="51"/>
       <c r="AZ212" s="51"/>
-      <c r="BA212" s="51"/>
-    </row>
-    <row r="213" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="26"/>
-      <c r="B213" s="97"/>
+      <c r="B213" s="107"/>
       <c r="C213" s="86"/>
       <c r="D213" s="87"/>
       <c r="E213" s="26"/>
@@ -19136,11 +18886,10 @@
       <c r="AX213" s="51"/>
       <c r="AY213" s="51"/>
       <c r="AZ213" s="51"/>
-      <c r="BA213" s="51"/>
-    </row>
-    <row r="214" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="26"/>
-      <c r="B214" s="97"/>
+      <c r="B214" s="107"/>
       <c r="C214" s="86"/>
       <c r="D214" s="87"/>
       <c r="E214" s="26"/>
@@ -19191,11 +18940,10 @@
       <c r="AX214" s="51"/>
       <c r="AY214" s="51"/>
       <c r="AZ214" s="51"/>
-      <c r="BA214" s="51"/>
-    </row>
-    <row r="215" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="26"/>
-      <c r="B215" s="97"/>
+      <c r="B215" s="107"/>
       <c r="C215" s="86"/>
       <c r="D215" s="87"/>
       <c r="E215" s="26"/>
@@ -19246,11 +18994,10 @@
       <c r="AX215" s="51"/>
       <c r="AY215" s="51"/>
       <c r="AZ215" s="51"/>
-      <c r="BA215" s="51"/>
-    </row>
-    <row r="216" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="26"/>
-      <c r="B216" s="97"/>
+      <c r="B216" s="107"/>
       <c r="C216" s="86"/>
       <c r="D216" s="87"/>
       <c r="E216" s="26"/>
@@ -19301,11 +19048,10 @@
       <c r="AX216" s="51"/>
       <c r="AY216" s="51"/>
       <c r="AZ216" s="51"/>
-      <c r="BA216" s="51"/>
-    </row>
-    <row r="217" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="26"/>
-      <c r="B217" s="97"/>
+      <c r="B217" s="107"/>
       <c r="C217" s="86"/>
       <c r="D217" s="87"/>
       <c r="E217" s="26"/>
@@ -19356,11 +19102,10 @@
       <c r="AX217" s="51"/>
       <c r="AY217" s="51"/>
       <c r="AZ217" s="51"/>
-      <c r="BA217" s="51"/>
-    </row>
-    <row r="218" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="26"/>
-      <c r="B218" s="97"/>
+      <c r="B218" s="107"/>
       <c r="C218" s="86"/>
       <c r="D218" s="87"/>
       <c r="E218" s="26"/>
@@ -19411,11 +19156,10 @@
       <c r="AX218" s="51"/>
       <c r="AY218" s="51"/>
       <c r="AZ218" s="51"/>
-      <c r="BA218" s="51"/>
-    </row>
-    <row r="219" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="26"/>
-      <c r="B219" s="97"/>
+      <c r="B219" s="107"/>
       <c r="C219" s="86"/>
       <c r="D219" s="87"/>
       <c r="E219" s="26"/>
@@ -19466,11 +19210,10 @@
       <c r="AX219" s="51"/>
       <c r="AY219" s="51"/>
       <c r="AZ219" s="51"/>
-      <c r="BA219" s="51"/>
-    </row>
-    <row r="220" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="26"/>
-      <c r="B220" s="97"/>
+      <c r="B220" s="107"/>
       <c r="C220" s="86"/>
       <c r="D220" s="87"/>
       <c r="E220" s="26"/>
@@ -19521,11 +19264,10 @@
       <c r="AX220" s="51"/>
       <c r="AY220" s="51"/>
       <c r="AZ220" s="51"/>
-      <c r="BA220" s="51"/>
-    </row>
-    <row r="221" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="26"/>
-      <c r="B221" s="97"/>
+      <c r="B221" s="107"/>
       <c r="C221" s="86"/>
       <c r="D221" s="87"/>
       <c r="E221" s="26"/>
@@ -19576,11 +19318,10 @@
       <c r="AX221" s="51"/>
       <c r="AY221" s="51"/>
       <c r="AZ221" s="51"/>
-      <c r="BA221" s="51"/>
-    </row>
-    <row r="222" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="26"/>
-      <c r="B222" s="97"/>
+      <c r="B222" s="107"/>
       <c r="C222" s="86"/>
       <c r="D222" s="87"/>
       <c r="E222" s="26"/>
@@ -19631,11 +19372,10 @@
       <c r="AX222" s="51"/>
       <c r="AY222" s="51"/>
       <c r="AZ222" s="51"/>
-      <c r="BA222" s="51"/>
-    </row>
-    <row r="223" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="26"/>
-      <c r="B223" s="97"/>
+      <c r="B223" s="107"/>
       <c r="C223" s="86"/>
       <c r="D223" s="87"/>
       <c r="E223" s="26"/>
@@ -19686,11 +19426,10 @@
       <c r="AX223" s="51"/>
       <c r="AY223" s="51"/>
       <c r="AZ223" s="51"/>
-      <c r="BA223" s="51"/>
-    </row>
-    <row r="224" spans="1:53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="26"/>
-      <c r="B224" s="97"/>
+      <c r="B224" s="107"/>
       <c r="C224" s="86"/>
       <c r="D224" s="87"/>
       <c r="E224" s="26"/>
@@ -19741,7 +19480,6 @@
       <c r="AX224" s="51"/>
       <c r="AY224" s="51"/>
       <c r="AZ224" s="51"/>
-      <c r="BA224" s="51"/>
     </row>
     <row r="225" spans="5:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E225" s="12"/>
@@ -25746,155 +25484,50 @@
   </sheetData>
   <autoFilter ref="A9:G21"/>
   <mergeCells count="217">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B223:D223"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B222:D222"/>
     <mergeCell ref="B157:D157"/>
     <mergeCell ref="B158:D158"/>
     <mergeCell ref="B159:D159"/>
@@ -25919,89 +25552,194 @@
     <mergeCell ref="B172:D172"/>
     <mergeCell ref="B173:D173"/>
     <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B223:D223"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B221:D221"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B189:D189"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <conditionalFormatting sqref="F1003:F1004">
     <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
-      <formula>$BJ$6</formula>
+      <formula>$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1003:F1004">
     <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
-      <formula>$BJ$7</formula>
+      <formula>$BI$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1003:F1004">
+  <conditionalFormatting sqref="F48:F1004">
     <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>$BJ$8</formula>
+      <formula>$BI$8</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4:BB4">
+  <conditionalFormatting sqref="V4:BA4">
     <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>"S"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V4:BB4">
+  <conditionalFormatting sqref="V4:BA4">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F45 F48:F1004">
     <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
-      <formula>$BJ$6</formula>
+      <formula>$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F45 F48:F1004">
     <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
-      <formula>$BJ$7</formula>
+      <formula>$BI$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F45 F48:F1004">
+  <conditionalFormatting sqref="F10:F45">
     <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
-      <formula>$BJ$8</formula>
+      <formula>$BI$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:D12">
@@ -26021,28 +25759,28 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F47">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>$BJ$6</formula>
+      <formula>$BI$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F47">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$BJ$7</formula>
+      <formula>$BI$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F47">
     <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
-      <formula>$BJ$8</formula>
+      <formula>$BI$8</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="G1003:U1004 H33:U512 G13 G15:G37 G39:G512">
-      <formula1>$BK$6:$BK$18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="G1003:U1004 G39:G512 G15:G37 G13 H33:U512">
+      <formula1>$BJ$6:$BJ$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="E1003:E1004 E27 E10:E13 E23 E15:E19 E31:E512">
-      <formula1>$BI$6:$BI$18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="E1003:E1004 E31:E512 E15:E19 E23 E10:E13 E27">
+      <formula1>$BH$6:$BH$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="F1003:F1004 F10:F512">
-      <formula1>$BJ$6:$BJ$18</formula1>
+      <formula1>$BI$6:$BI$18</formula1>
     </dataValidation>
     <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="D5">
       <formula1>1</formula1>
@@ -26054,7 +25792,7 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt=" - " sqref="C5">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:BA32">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10:AZ32">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>
@@ -26069,10 +25807,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF99"/>
   </sheetPr>
-  <dimension ref="A1:AC996"/>
+  <dimension ref="A1:AB996"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="R4" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O10" workbookViewId="0">
+      <selection activeCell="AB57" sqref="AB57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26088,12 +25826,12 @@
     <col min="13" max="13" width="4.7109375" style="42" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" customWidth="1"/>
     <col min="15" max="22" width="4.7109375" style="64" customWidth="1"/>
-    <col min="23" max="28" width="4.7109375" style="68" customWidth="1"/>
-    <col min="29" max="29" width="56.5703125" customWidth="1"/>
-    <col min="30" max="30" width="5.28515625" customWidth="1"/>
+    <col min="23" max="27" width="4.7109375" style="68" customWidth="1"/>
+    <col min="28" max="28" width="56.5703125" customWidth="1"/>
+    <col min="29" max="29" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K1" s="20"/>
       <c r="L1" s="28"/>
       <c r="M1" s="28"/>
@@ -26111,9 +25849,8 @@
       <c r="Y1" s="29"/>
       <c r="Z1" s="29"/>
       <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-    </row>
-    <row r="2" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J2" s="110" t="s">
         <v>0</v>
       </c>
@@ -26134,10 +25871,9 @@
       <c r="Y2" s="111"/>
       <c r="Z2" s="111"/>
       <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="112"/>
-    </row>
-    <row r="3" spans="10:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB2" s="112"/>
+    </row>
+    <row r="3" spans="10:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J3" s="113" t="str">
         <f>Config!A6</f>
         <v>Registro de aplicación de vacunas contra el COVID-19 en zonas rurales del cantón Quito</v>
@@ -26159,10 +25895,9 @@
       <c r="Y3" s="111"/>
       <c r="Z3" s="111"/>
       <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="112"/>
-    </row>
-    <row r="4" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="112"/>
+    </row>
+    <row r="4" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K4" s="20"/>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
@@ -26180,9 +25915,8 @@
       <c r="Y4" s="29"/>
       <c r="Z4" s="29"/>
       <c r="AA4" s="29"/>
-      <c r="AB4" s="29"/>
-    </row>
-    <row r="5" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K5" s="20"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -26200,19 +25934,18 @@
       <c r="Y5" s="29"/>
       <c r="Z5" s="29"/>
       <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-    </row>
-    <row r="6" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="6" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26245,15 +25978,15 @@
     <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:29" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:29" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30"/>
       <c r="B57" s="31">
         <v>44401</v>
@@ -26333,12 +26066,9 @@
       <c r="AA57" s="71">
         <v>44440</v>
       </c>
-      <c r="AB57" s="71">
-        <v>44441</v>
-      </c>
-      <c r="AC57" s="31"/>
-    </row>
-    <row r="58" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB57" s="31"/>
+    </row>
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="str">
         <f>Config!C17</f>
         <v>Angel</v>
@@ -26426,14 +26156,11 @@
         <v>0</v>
       </c>
       <c r="AA58" s="72">
-        <v>2</v>
-      </c>
-      <c r="AB58" s="72">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="33"/>
-    </row>
-    <row r="59" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="AB58" s="33"/>
+    </row>
+    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="str">
         <f>Config!C20</f>
         <v>Steven</v>
@@ -26516,14 +26243,11 @@
         <v>2</v>
       </c>
       <c r="AA59" s="72">
-        <v>4</v>
-      </c>
-      <c r="AB59" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="33"/>
-    </row>
-    <row r="60" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="AB59" s="33"/>
+    </row>
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="str">
         <f>Config!C19</f>
         <v>Joel</v>
@@ -26608,14 +26332,11 @@
         <v>0</v>
       </c>
       <c r="AA60" s="72">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="72">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="33"/>
-    </row>
-    <row r="61" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="33"/>
+    </row>
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="32" t="str">
         <f>Config!C18</f>
         <v>Bryan</v>
@@ -26703,14 +26424,11 @@
         <v>0</v>
       </c>
       <c r="AA61" s="72">
-        <v>2</v>
-      </c>
-      <c r="AB61" s="72">
-        <v>3</v>
-      </c>
-      <c r="AC61" s="33"/>
-    </row>
-    <row r="62" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="AB61" s="33"/>
+    </row>
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="59"/>
       <c r="B62" s="60"/>
       <c r="C62" s="60"/>
@@ -26738,10 +26456,9 @@
       <c r="Y62" s="61"/>
       <c r="Z62" s="61"/>
       <c r="AA62" s="61"/>
-      <c r="AB62" s="61"/>
-      <c r="AC62" s="60"/>
-    </row>
-    <row r="63" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB62" s="60"/>
+    </row>
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="59"/>
       <c r="B63" s="60"/>
       <c r="C63" s="60"/>
@@ -26769,10 +26486,9 @@
       <c r="Y63" s="61"/>
       <c r="Z63" s="61"/>
       <c r="AA63" s="61"/>
-      <c r="AB63" s="61"/>
-      <c r="AC63" s="60"/>
-    </row>
-    <row r="64" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB63" s="60"/>
+    </row>
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="59"/>
       <c r="B64" s="60"/>
       <c r="C64" s="60"/>
@@ -26800,10 +26516,9 @@
       <c r="Y64" s="61"/>
       <c r="Z64" s="61"/>
       <c r="AA64" s="61"/>
-      <c r="AB64" s="61"/>
-      <c r="AC64" s="60"/>
-    </row>
-    <row r="65" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB64" s="60"/>
+    </row>
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="62"/>
       <c r="B65" s="63"/>
       <c r="C65" s="63"/>
@@ -26831,10 +26546,9 @@
       <c r="Y65" s="61"/>
       <c r="Z65" s="61"/>
       <c r="AA65" s="61"/>
-      <c r="AB65" s="61"/>
-      <c r="AC65" s="60"/>
-    </row>
-    <row r="66" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB65" s="60"/>
+    </row>
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J66" s="34"/>
       <c r="K66" s="34"/>
       <c r="L66" s="34"/>
@@ -26854,9 +26568,8 @@
       <c r="Z66" s="34"/>
       <c r="AA66" s="34"/>
       <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-    </row>
-    <row r="67" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J67" s="34"/>
       <c r="K67" s="34"/>
       <c r="L67" s="34"/>
@@ -26876,9 +26589,8 @@
       <c r="Z67" s="34"/>
       <c r="AA67" s="34"/>
       <c r="AB67" s="34"/>
-      <c r="AC67" s="34"/>
-    </row>
-    <row r="68" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J68" s="34"/>
       <c r="K68" s="34"/>
       <c r="L68" s="34"/>
@@ -26898,9 +26610,8 @@
       <c r="Z68" s="34"/>
       <c r="AA68" s="34"/>
       <c r="AB68" s="34"/>
-      <c r="AC68" s="34"/>
-    </row>
-    <row r="69" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J69" s="34"/>
       <c r="K69" s="34"/>
       <c r="L69" s="34"/>
@@ -26920,9 +26631,8 @@
       <c r="Z69" s="34"/>
       <c r="AA69" s="34"/>
       <c r="AB69" s="34"/>
-      <c r="AC69" s="34"/>
-    </row>
-    <row r="70" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J70" s="34"/>
       <c r="K70" s="34"/>
       <c r="L70" s="34"/>
@@ -26942,9 +26652,8 @@
       <c r="Z70" s="34"/>
       <c r="AA70" s="34"/>
       <c r="AB70" s="34"/>
-      <c r="AC70" s="34"/>
-    </row>
-    <row r="71" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J71" s="34"/>
       <c r="K71" s="34"/>
       <c r="L71" s="34"/>
@@ -26964,9 +26673,8 @@
       <c r="Z71" s="34"/>
       <c r="AA71" s="34"/>
       <c r="AB71" s="34"/>
-      <c r="AC71" s="34"/>
-    </row>
-    <row r="72" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J72" s="34"/>
       <c r="K72" s="34"/>
       <c r="L72" s="34"/>
@@ -26986,9 +26694,8 @@
       <c r="Z72" s="34"/>
       <c r="AA72" s="34"/>
       <c r="AB72" s="34"/>
-      <c r="AC72" s="34"/>
-    </row>
-    <row r="73" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J73" s="34"/>
       <c r="K73" s="34"/>
       <c r="L73" s="34"/>
@@ -27008,9 +26715,8 @@
       <c r="Z73" s="34"/>
       <c r="AA73" s="34"/>
       <c r="AB73" s="34"/>
-      <c r="AC73" s="34"/>
-    </row>
-    <row r="74" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J74" s="34"/>
       <c r="K74" s="34"/>
       <c r="L74" s="34"/>
@@ -27030,9 +26736,8 @@
       <c r="Z74" s="34"/>
       <c r="AA74" s="34"/>
       <c r="AB74" s="34"/>
-      <c r="AC74" s="34"/>
-    </row>
-    <row r="75" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J75" s="34"/>
       <c r="K75" s="34"/>
       <c r="L75" s="34"/>
@@ -27052,9 +26757,8 @@
       <c r="Z75" s="34"/>
       <c r="AA75" s="34"/>
       <c r="AB75" s="34"/>
-      <c r="AC75" s="34"/>
-    </row>
-    <row r="76" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J76" s="34"/>
       <c r="K76" s="34"/>
       <c r="L76" s="34"/>
@@ -27074,9 +26778,8 @@
       <c r="Z76" s="34"/>
       <c r="AA76" s="34"/>
       <c r="AB76" s="34"/>
-      <c r="AC76" s="34"/>
-    </row>
-    <row r="77" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J77" s="34"/>
       <c r="K77" s="34"/>
       <c r="L77" s="34"/>
@@ -27096,9 +26799,8 @@
       <c r="Z77" s="34"/>
       <c r="AA77" s="34"/>
       <c r="AB77" s="34"/>
-      <c r="AC77" s="34"/>
-    </row>
-    <row r="78" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J78" s="34"/>
       <c r="K78" s="34"/>
       <c r="L78" s="34"/>
@@ -27118,9 +26820,8 @@
       <c r="Z78" s="34"/>
       <c r="AA78" s="34"/>
       <c r="AB78" s="34"/>
-      <c r="AC78" s="34"/>
-    </row>
-    <row r="79" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J79" s="34"/>
       <c r="K79" s="34"/>
       <c r="L79" s="34"/>
@@ -27140,9 +26841,8 @@
       <c r="Z79" s="34"/>
       <c r="AA79" s="34"/>
       <c r="AB79" s="34"/>
-      <c r="AC79" s="34"/>
-    </row>
-    <row r="80" spans="1:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J80" s="34"/>
       <c r="K80" s="34"/>
       <c r="L80" s="34"/>
@@ -27162,9 +26862,8 @@
       <c r="Z80" s="34"/>
       <c r="AA80" s="34"/>
       <c r="AB80" s="34"/>
-      <c r="AC80" s="34"/>
-    </row>
-    <row r="81" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J81" s="34"/>
       <c r="K81" s="34"/>
       <c r="L81" s="34"/>
@@ -27184,9 +26883,8 @@
       <c r="Z81" s="34"/>
       <c r="AA81" s="34"/>
       <c r="AB81" s="34"/>
-      <c r="AC81" s="34"/>
-    </row>
-    <row r="82" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J82" s="34"/>
       <c r="K82" s="34"/>
       <c r="L82" s="34"/>
@@ -27206,9 +26904,8 @@
       <c r="Z82" s="34"/>
       <c r="AA82" s="34"/>
       <c r="AB82" s="34"/>
-      <c r="AC82" s="34"/>
-    </row>
-    <row r="83" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J83" s="34"/>
       <c r="K83" s="34"/>
       <c r="L83" s="34"/>
@@ -27228,9 +26925,8 @@
       <c r="Z83" s="34"/>
       <c r="AA83" s="34"/>
       <c r="AB83" s="34"/>
-      <c r="AC83" s="34"/>
-    </row>
-    <row r="84" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J84" s="34"/>
       <c r="K84" s="34"/>
       <c r="L84" s="34"/>
@@ -27250,9 +26946,8 @@
       <c r="Z84" s="34"/>
       <c r="AA84" s="34"/>
       <c r="AB84" s="34"/>
-      <c r="AC84" s="34"/>
-    </row>
-    <row r="85" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J85" s="34"/>
       <c r="K85" s="34"/>
       <c r="L85" s="34"/>
@@ -27272,9 +26967,8 @@
       <c r="Z85" s="34"/>
       <c r="AA85" s="34"/>
       <c r="AB85" s="34"/>
-      <c r="AC85" s="34"/>
-    </row>
-    <row r="86" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J86" s="34"/>
       <c r="K86" s="34"/>
       <c r="L86" s="34"/>
@@ -27294,9 +26988,8 @@
       <c r="Z86" s="34"/>
       <c r="AA86" s="34"/>
       <c r="AB86" s="34"/>
-      <c r="AC86" s="34"/>
-    </row>
-    <row r="87" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J87" s="34"/>
       <c r="K87" s="34"/>
       <c r="L87" s="34"/>
@@ -27316,9 +27009,8 @@
       <c r="Z87" s="34"/>
       <c r="AA87" s="34"/>
       <c r="AB87" s="34"/>
-      <c r="AC87" s="34"/>
-    </row>
-    <row r="88" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J88" s="34"/>
       <c r="K88" s="34"/>
       <c r="L88" s="34"/>
@@ -27338,9 +27030,8 @@
       <c r="Z88" s="34"/>
       <c r="AA88" s="34"/>
       <c r="AB88" s="34"/>
-      <c r="AC88" s="34"/>
-    </row>
-    <row r="89" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J89" s="34"/>
       <c r="K89" s="34"/>
       <c r="L89" s="34"/>
@@ -27360,9 +27051,8 @@
       <c r="Z89" s="34"/>
       <c r="AA89" s="34"/>
       <c r="AB89" s="34"/>
-      <c r="AC89" s="34"/>
-    </row>
-    <row r="90" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J90" s="34"/>
       <c r="K90" s="34"/>
       <c r="L90" s="34"/>
@@ -27382,9 +27072,8 @@
       <c r="Z90" s="34"/>
       <c r="AA90" s="34"/>
       <c r="AB90" s="34"/>
-      <c r="AC90" s="34"/>
-    </row>
-    <row r="91" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="34"/>
       <c r="K91" s="34"/>
       <c r="L91" s="34"/>
@@ -27404,9 +27093,8 @@
       <c r="Z91" s="34"/>
       <c r="AA91" s="34"/>
       <c r="AB91" s="34"/>
-      <c r="AC91" s="34"/>
-    </row>
-    <row r="92" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J92" s="34"/>
       <c r="K92" s="34"/>
       <c r="L92" s="34"/>
@@ -27426,9 +27114,8 @@
       <c r="Z92" s="34"/>
       <c r="AA92" s="34"/>
       <c r="AB92" s="34"/>
-      <c r="AC92" s="34"/>
-    </row>
-    <row r="93" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J93" s="34"/>
       <c r="K93" s="34"/>
       <c r="L93" s="34"/>
@@ -27448,9 +27135,8 @@
       <c r="Z93" s="34"/>
       <c r="AA93" s="34"/>
       <c r="AB93" s="34"/>
-      <c r="AC93" s="34"/>
-    </row>
-    <row r="94" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J94" s="34"/>
       <c r="K94" s="34"/>
       <c r="L94" s="34"/>
@@ -27470,9 +27156,8 @@
       <c r="Z94" s="34"/>
       <c r="AA94" s="34"/>
       <c r="AB94" s="34"/>
-      <c r="AC94" s="34"/>
-    </row>
-    <row r="95" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J95" s="34"/>
       <c r="K95" s="34"/>
       <c r="L95" s="34"/>
@@ -27492,9 +27177,8 @@
       <c r="Z95" s="34"/>
       <c r="AA95" s="34"/>
       <c r="AB95" s="34"/>
-      <c r="AC95" s="34"/>
-    </row>
-    <row r="96" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J96" s="34"/>
       <c r="K96" s="34"/>
       <c r="L96" s="34"/>
@@ -27514,9 +27198,8 @@
       <c r="Z96" s="34"/>
       <c r="AA96" s="34"/>
       <c r="AB96" s="34"/>
-      <c r="AC96" s="34"/>
-    </row>
-    <row r="97" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J97" s="34"/>
       <c r="K97" s="34"/>
       <c r="L97" s="34"/>
@@ -27536,9 +27219,8 @@
       <c r="Z97" s="34"/>
       <c r="AA97" s="34"/>
       <c r="AB97" s="34"/>
-      <c r="AC97" s="34"/>
-    </row>
-    <row r="98" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J98" s="34"/>
       <c r="K98" s="34"/>
       <c r="L98" s="34"/>
@@ -27558,9 +27240,8 @@
       <c r="Z98" s="34"/>
       <c r="AA98" s="34"/>
       <c r="AB98" s="34"/>
-      <c r="AC98" s="34"/>
-    </row>
-    <row r="99" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J99" s="34"/>
       <c r="K99" s="34"/>
       <c r="L99" s="34"/>
@@ -27580,9 +27261,8 @@
       <c r="Z99" s="34"/>
       <c r="AA99" s="34"/>
       <c r="AB99" s="34"/>
-      <c r="AC99" s="34"/>
-    </row>
-    <row r="100" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J100" s="34"/>
       <c r="K100" s="34"/>
       <c r="L100" s="34"/>
@@ -27602,9 +27282,8 @@
       <c r="Z100" s="34"/>
       <c r="AA100" s="34"/>
       <c r="AB100" s="34"/>
-      <c r="AC100" s="34"/>
-    </row>
-    <row r="101" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J101" s="34"/>
       <c r="K101" s="34"/>
       <c r="L101" s="34"/>
@@ -27624,9 +27303,8 @@
       <c r="Z101" s="34"/>
       <c r="AA101" s="34"/>
       <c r="AB101" s="34"/>
-      <c r="AC101" s="34"/>
-    </row>
-    <row r="102" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J102" s="34"/>
       <c r="K102" s="34"/>
       <c r="L102" s="34"/>
@@ -27646,9 +27324,8 @@
       <c r="Z102" s="34"/>
       <c r="AA102" s="34"/>
       <c r="AB102" s="34"/>
-      <c r="AC102" s="34"/>
-    </row>
-    <row r="103" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J103" s="34"/>
       <c r="K103" s="34"/>
       <c r="L103" s="34"/>
@@ -27668,9 +27345,8 @@
       <c r="Z103" s="34"/>
       <c r="AA103" s="34"/>
       <c r="AB103" s="34"/>
-      <c r="AC103" s="34"/>
-    </row>
-    <row r="104" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J104" s="34"/>
       <c r="K104" s="34"/>
       <c r="L104" s="34"/>
@@ -27690,9 +27366,8 @@
       <c r="Z104" s="34"/>
       <c r="AA104" s="34"/>
       <c r="AB104" s="34"/>
-      <c r="AC104" s="34"/>
-    </row>
-    <row r="105" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J105" s="34"/>
       <c r="K105" s="34"/>
       <c r="L105" s="34"/>
@@ -27712,9 +27387,8 @@
       <c r="Z105" s="34"/>
       <c r="AA105" s="34"/>
       <c r="AB105" s="34"/>
-      <c r="AC105" s="34"/>
-    </row>
-    <row r="106" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J106" s="34"/>
       <c r="K106" s="34"/>
       <c r="L106" s="34"/>
@@ -27734,9 +27408,8 @@
       <c r="Z106" s="34"/>
       <c r="AA106" s="34"/>
       <c r="AB106" s="34"/>
-      <c r="AC106" s="34"/>
-    </row>
-    <row r="107" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J107" s="34"/>
       <c r="K107" s="34"/>
       <c r="L107" s="34"/>
@@ -27756,9 +27429,8 @@
       <c r="Z107" s="34"/>
       <c r="AA107" s="34"/>
       <c r="AB107" s="34"/>
-      <c r="AC107" s="34"/>
-    </row>
-    <row r="108" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J108" s="34"/>
       <c r="K108" s="34"/>
       <c r="L108" s="34"/>
@@ -27778,9 +27450,8 @@
       <c r="Z108" s="34"/>
       <c r="AA108" s="34"/>
       <c r="AB108" s="34"/>
-      <c r="AC108" s="34"/>
-    </row>
-    <row r="109" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J109" s="34"/>
       <c r="K109" s="34"/>
       <c r="L109" s="34"/>
@@ -27800,9 +27471,8 @@
       <c r="Z109" s="34"/>
       <c r="AA109" s="34"/>
       <c r="AB109" s="34"/>
-      <c r="AC109" s="34"/>
-    </row>
-    <row r="110" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J110" s="34"/>
       <c r="K110" s="34"/>
       <c r="L110" s="34"/>
@@ -27822,9 +27492,8 @@
       <c r="Z110" s="34"/>
       <c r="AA110" s="34"/>
       <c r="AB110" s="34"/>
-      <c r="AC110" s="34"/>
-    </row>
-    <row r="111" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J111" s="34"/>
       <c r="K111" s="34"/>
       <c r="L111" s="34"/>
@@ -27844,9 +27513,8 @@
       <c r="Z111" s="34"/>
       <c r="AA111" s="34"/>
       <c r="AB111" s="34"/>
-      <c r="AC111" s="34"/>
-    </row>
-    <row r="112" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J112" s="34"/>
       <c r="K112" s="34"/>
       <c r="L112" s="34"/>
@@ -27866,9 +27534,8 @@
       <c r="Z112" s="34"/>
       <c r="AA112" s="34"/>
       <c r="AB112" s="34"/>
-      <c r="AC112" s="34"/>
-    </row>
-    <row r="113" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J113" s="34"/>
       <c r="K113" s="34"/>
       <c r="L113" s="34"/>
@@ -27888,9 +27555,8 @@
       <c r="Z113" s="34"/>
       <c r="AA113" s="34"/>
       <c r="AB113" s="34"/>
-      <c r="AC113" s="34"/>
-    </row>
-    <row r="114" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J114" s="34"/>
       <c r="K114" s="34"/>
       <c r="L114" s="34"/>
@@ -27910,9 +27576,8 @@
       <c r="Z114" s="34"/>
       <c r="AA114" s="34"/>
       <c r="AB114" s="34"/>
-      <c r="AC114" s="34"/>
-    </row>
-    <row r="115" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J115" s="34"/>
       <c r="K115" s="34"/>
       <c r="L115" s="34"/>
@@ -27932,9 +27597,8 @@
       <c r="Z115" s="34"/>
       <c r="AA115" s="34"/>
       <c r="AB115" s="34"/>
-      <c r="AC115" s="34"/>
-    </row>
-    <row r="116" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J116" s="34"/>
       <c r="K116" s="34"/>
       <c r="L116" s="34"/>
@@ -27954,9 +27618,8 @@
       <c r="Z116" s="34"/>
       <c r="AA116" s="34"/>
       <c r="AB116" s="34"/>
-      <c r="AC116" s="34"/>
-    </row>
-    <row r="117" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J117" s="34"/>
       <c r="K117" s="34"/>
       <c r="L117" s="34"/>
@@ -27976,9 +27639,8 @@
       <c r="Z117" s="34"/>
       <c r="AA117" s="34"/>
       <c r="AB117" s="34"/>
-      <c r="AC117" s="34"/>
-    </row>
-    <row r="118" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J118" s="34"/>
       <c r="K118" s="34"/>
       <c r="L118" s="34"/>
@@ -27998,9 +27660,8 @@
       <c r="Z118" s="34"/>
       <c r="AA118" s="34"/>
       <c r="AB118" s="34"/>
-      <c r="AC118" s="34"/>
-    </row>
-    <row r="119" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J119" s="34"/>
       <c r="K119" s="34"/>
       <c r="L119" s="34"/>
@@ -28020,9 +27681,8 @@
       <c r="Z119" s="34"/>
       <c r="AA119" s="34"/>
       <c r="AB119" s="34"/>
-      <c r="AC119" s="34"/>
-    </row>
-    <row r="120" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J120" s="34"/>
       <c r="K120" s="34"/>
       <c r="L120" s="34"/>
@@ -28042,9 +27702,8 @@
       <c r="Z120" s="34"/>
       <c r="AA120" s="34"/>
       <c r="AB120" s="34"/>
-      <c r="AC120" s="34"/>
-    </row>
-    <row r="121" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J121" s="34"/>
       <c r="K121" s="34"/>
       <c r="L121" s="34"/>
@@ -28064,9 +27723,8 @@
       <c r="Z121" s="34"/>
       <c r="AA121" s="34"/>
       <c r="AB121" s="34"/>
-      <c r="AC121" s="34"/>
-    </row>
-    <row r="122" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J122" s="34"/>
       <c r="K122" s="34"/>
       <c r="L122" s="34"/>
@@ -28086,9 +27744,8 @@
       <c r="Z122" s="34"/>
       <c r="AA122" s="34"/>
       <c r="AB122" s="34"/>
-      <c r="AC122" s="34"/>
-    </row>
-    <row r="123" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J123" s="34"/>
       <c r="K123" s="34"/>
       <c r="L123" s="34"/>
@@ -28108,9 +27765,8 @@
       <c r="Z123" s="34"/>
       <c r="AA123" s="34"/>
       <c r="AB123" s="34"/>
-      <c r="AC123" s="34"/>
-    </row>
-    <row r="124" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J124" s="34"/>
       <c r="K124" s="34"/>
       <c r="L124" s="34"/>
@@ -28130,9 +27786,8 @@
       <c r="Z124" s="34"/>
       <c r="AA124" s="34"/>
       <c r="AB124" s="34"/>
-      <c r="AC124" s="34"/>
-    </row>
-    <row r="125" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J125" s="34"/>
       <c r="K125" s="34"/>
       <c r="L125" s="34"/>
@@ -28152,9 +27807,8 @@
       <c r="Z125" s="34"/>
       <c r="AA125" s="34"/>
       <c r="AB125" s="34"/>
-      <c r="AC125" s="34"/>
-    </row>
-    <row r="126" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J126" s="34"/>
       <c r="K126" s="34"/>
       <c r="L126" s="34"/>
@@ -28174,9 +27828,8 @@
       <c r="Z126" s="34"/>
       <c r="AA126" s="34"/>
       <c r="AB126" s="34"/>
-      <c r="AC126" s="34"/>
-    </row>
-    <row r="127" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J127" s="34"/>
       <c r="K127" s="34"/>
       <c r="L127" s="34"/>
@@ -28196,9 +27849,8 @@
       <c r="Z127" s="34"/>
       <c r="AA127" s="34"/>
       <c r="AB127" s="34"/>
-      <c r="AC127" s="34"/>
-    </row>
-    <row r="128" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J128" s="34"/>
       <c r="K128" s="34"/>
       <c r="L128" s="34"/>
@@ -28218,9 +27870,8 @@
       <c r="Z128" s="34"/>
       <c r="AA128" s="34"/>
       <c r="AB128" s="34"/>
-      <c r="AC128" s="34"/>
-    </row>
-    <row r="129" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J129" s="34"/>
       <c r="K129" s="34"/>
       <c r="L129" s="34"/>
@@ -28240,9 +27891,8 @@
       <c r="Z129" s="34"/>
       <c r="AA129" s="34"/>
       <c r="AB129" s="34"/>
-      <c r="AC129" s="34"/>
-    </row>
-    <row r="130" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J130" s="34"/>
       <c r="K130" s="34"/>
       <c r="L130" s="34"/>
@@ -28262,9 +27912,8 @@
       <c r="Z130" s="34"/>
       <c r="AA130" s="34"/>
       <c r="AB130" s="34"/>
-      <c r="AC130" s="34"/>
-    </row>
-    <row r="131" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J131" s="34"/>
       <c r="K131" s="34"/>
       <c r="L131" s="34"/>
@@ -28284,9 +27933,8 @@
       <c r="Z131" s="34"/>
       <c r="AA131" s="34"/>
       <c r="AB131" s="34"/>
-      <c r="AC131" s="34"/>
-    </row>
-    <row r="132" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J132" s="34"/>
       <c r="K132" s="34"/>
       <c r="L132" s="34"/>
@@ -28306,9 +27954,8 @@
       <c r="Z132" s="34"/>
       <c r="AA132" s="34"/>
       <c r="AB132" s="34"/>
-      <c r="AC132" s="34"/>
-    </row>
-    <row r="133" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J133" s="34"/>
       <c r="K133" s="34"/>
       <c r="L133" s="34"/>
@@ -28328,9 +27975,8 @@
       <c r="Z133" s="34"/>
       <c r="AA133" s="34"/>
       <c r="AB133" s="34"/>
-      <c r="AC133" s="34"/>
-    </row>
-    <row r="134" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J134" s="34"/>
       <c r="K134" s="34"/>
       <c r="L134" s="34"/>
@@ -28350,9 +27996,8 @@
       <c r="Z134" s="34"/>
       <c r="AA134" s="34"/>
       <c r="AB134" s="34"/>
-      <c r="AC134" s="34"/>
-    </row>
-    <row r="135" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J135" s="34"/>
       <c r="K135" s="34"/>
       <c r="L135" s="34"/>
@@ -28372,9 +28017,8 @@
       <c r="Z135" s="34"/>
       <c r="AA135" s="34"/>
       <c r="AB135" s="34"/>
-      <c r="AC135" s="34"/>
-    </row>
-    <row r="136" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J136" s="34"/>
       <c r="K136" s="34"/>
       <c r="L136" s="34"/>
@@ -28394,9 +28038,8 @@
       <c r="Z136" s="34"/>
       <c r="AA136" s="34"/>
       <c r="AB136" s="34"/>
-      <c r="AC136" s="34"/>
-    </row>
-    <row r="137" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J137" s="34"/>
       <c r="K137" s="34"/>
       <c r="L137" s="34"/>
@@ -28416,9 +28059,8 @@
       <c r="Z137" s="34"/>
       <c r="AA137" s="34"/>
       <c r="AB137" s="34"/>
-      <c r="AC137" s="34"/>
-    </row>
-    <row r="138" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J138" s="34"/>
       <c r="K138" s="34"/>
       <c r="L138" s="34"/>
@@ -28438,9 +28080,8 @@
       <c r="Z138" s="34"/>
       <c r="AA138" s="34"/>
       <c r="AB138" s="34"/>
-      <c r="AC138" s="34"/>
-    </row>
-    <row r="139" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J139" s="34"/>
       <c r="K139" s="34"/>
       <c r="L139" s="34"/>
@@ -28460,9 +28101,8 @@
       <c r="Z139" s="34"/>
       <c r="AA139" s="34"/>
       <c r="AB139" s="34"/>
-      <c r="AC139" s="34"/>
-    </row>
-    <row r="140" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J140" s="34"/>
       <c r="K140" s="34"/>
       <c r="L140" s="34"/>
@@ -28482,9 +28122,8 @@
       <c r="Z140" s="34"/>
       <c r="AA140" s="34"/>
       <c r="AB140" s="34"/>
-      <c r="AC140" s="34"/>
-    </row>
-    <row r="141" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J141" s="34"/>
       <c r="K141" s="34"/>
       <c r="L141" s="34"/>
@@ -28504,9 +28143,8 @@
       <c r="Z141" s="34"/>
       <c r="AA141" s="34"/>
       <c r="AB141" s="34"/>
-      <c r="AC141" s="34"/>
-    </row>
-    <row r="142" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J142" s="34"/>
       <c r="K142" s="34"/>
       <c r="L142" s="34"/>
@@ -28526,9 +28164,8 @@
       <c r="Z142" s="34"/>
       <c r="AA142" s="34"/>
       <c r="AB142" s="34"/>
-      <c r="AC142" s="34"/>
-    </row>
-    <row r="143" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J143" s="34"/>
       <c r="K143" s="34"/>
       <c r="L143" s="34"/>
@@ -28548,9 +28185,8 @@
       <c r="Z143" s="34"/>
       <c r="AA143" s="34"/>
       <c r="AB143" s="34"/>
-      <c r="AC143" s="34"/>
-    </row>
-    <row r="144" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J144" s="34"/>
       <c r="K144" s="34"/>
       <c r="L144" s="34"/>
@@ -28570,9 +28206,8 @@
       <c r="Z144" s="34"/>
       <c r="AA144" s="34"/>
       <c r="AB144" s="34"/>
-      <c r="AC144" s="34"/>
-    </row>
-    <row r="145" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J145" s="34"/>
       <c r="K145" s="34"/>
       <c r="L145" s="34"/>
@@ -28592,9 +28227,8 @@
       <c r="Z145" s="34"/>
       <c r="AA145" s="34"/>
       <c r="AB145" s="34"/>
-      <c r="AC145" s="34"/>
-    </row>
-    <row r="146" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J146" s="34"/>
       <c r="K146" s="34"/>
       <c r="L146" s="34"/>
@@ -28614,9 +28248,8 @@
       <c r="Z146" s="34"/>
       <c r="AA146" s="34"/>
       <c r="AB146" s="34"/>
-      <c r="AC146" s="34"/>
-    </row>
-    <row r="147" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J147" s="34"/>
       <c r="K147" s="34"/>
       <c r="L147" s="34"/>
@@ -28636,9 +28269,8 @@
       <c r="Z147" s="34"/>
       <c r="AA147" s="34"/>
       <c r="AB147" s="34"/>
-      <c r="AC147" s="34"/>
-    </row>
-    <row r="148" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J148" s="34"/>
       <c r="K148" s="34"/>
       <c r="L148" s="34"/>
@@ -28658,9 +28290,8 @@
       <c r="Z148" s="34"/>
       <c r="AA148" s="34"/>
       <c r="AB148" s="34"/>
-      <c r="AC148" s="34"/>
-    </row>
-    <row r="149" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J149" s="34"/>
       <c r="K149" s="34"/>
       <c r="L149" s="34"/>
@@ -28680,9 +28311,8 @@
       <c r="Z149" s="34"/>
       <c r="AA149" s="34"/>
       <c r="AB149" s="34"/>
-      <c r="AC149" s="34"/>
-    </row>
-    <row r="150" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J150" s="34"/>
       <c r="K150" s="34"/>
       <c r="L150" s="34"/>
@@ -28702,9 +28332,8 @@
       <c r="Z150" s="34"/>
       <c r="AA150" s="34"/>
       <c r="AB150" s="34"/>
-      <c r="AC150" s="34"/>
-    </row>
-    <row r="151" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J151" s="34"/>
       <c r="K151" s="34"/>
       <c r="L151" s="34"/>
@@ -28724,9 +28353,8 @@
       <c r="Z151" s="34"/>
       <c r="AA151" s="34"/>
       <c r="AB151" s="34"/>
-      <c r="AC151" s="34"/>
-    </row>
-    <row r="152" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J152" s="34"/>
       <c r="K152" s="34"/>
       <c r="L152" s="34"/>
@@ -28746,9 +28374,8 @@
       <c r="Z152" s="34"/>
       <c r="AA152" s="34"/>
       <c r="AB152" s="34"/>
-      <c r="AC152" s="34"/>
-    </row>
-    <row r="153" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J153" s="34"/>
       <c r="K153" s="34"/>
       <c r="L153" s="34"/>
@@ -28768,9 +28395,8 @@
       <c r="Z153" s="34"/>
       <c r="AA153" s="34"/>
       <c r="AB153" s="34"/>
-      <c r="AC153" s="34"/>
-    </row>
-    <row r="154" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J154" s="34"/>
       <c r="K154" s="34"/>
       <c r="L154" s="34"/>
@@ -28790,9 +28416,8 @@
       <c r="Z154" s="34"/>
       <c r="AA154" s="34"/>
       <c r="AB154" s="34"/>
-      <c r="AC154" s="34"/>
-    </row>
-    <row r="155" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J155" s="34"/>
       <c r="K155" s="34"/>
       <c r="L155" s="34"/>
@@ -28812,9 +28437,8 @@
       <c r="Z155" s="34"/>
       <c r="AA155" s="34"/>
       <c r="AB155" s="34"/>
-      <c r="AC155" s="34"/>
-    </row>
-    <row r="156" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J156" s="34"/>
       <c r="K156" s="34"/>
       <c r="L156" s="34"/>
@@ -28834,9 +28458,8 @@
       <c r="Z156" s="34"/>
       <c r="AA156" s="34"/>
       <c r="AB156" s="34"/>
-      <c r="AC156" s="34"/>
-    </row>
-    <row r="157" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J157" s="34"/>
       <c r="K157" s="34"/>
       <c r="L157" s="34"/>
@@ -28856,9 +28479,8 @@
       <c r="Z157" s="34"/>
       <c r="AA157" s="34"/>
       <c r="AB157" s="34"/>
-      <c r="AC157" s="34"/>
-    </row>
-    <row r="158" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J158" s="34"/>
       <c r="K158" s="34"/>
       <c r="L158" s="34"/>
@@ -28878,9 +28500,8 @@
       <c r="Z158" s="34"/>
       <c r="AA158" s="34"/>
       <c r="AB158" s="34"/>
-      <c r="AC158" s="34"/>
-    </row>
-    <row r="159" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J159" s="34"/>
       <c r="K159" s="34"/>
       <c r="L159" s="34"/>
@@ -28900,9 +28521,8 @@
       <c r="Z159" s="34"/>
       <c r="AA159" s="34"/>
       <c r="AB159" s="34"/>
-      <c r="AC159" s="34"/>
-    </row>
-    <row r="160" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J160" s="34"/>
       <c r="K160" s="34"/>
       <c r="L160" s="34"/>
@@ -28922,9 +28542,8 @@
       <c r="Z160" s="34"/>
       <c r="AA160" s="34"/>
       <c r="AB160" s="34"/>
-      <c r="AC160" s="34"/>
-    </row>
-    <row r="161" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J161" s="34"/>
       <c r="K161" s="34"/>
       <c r="L161" s="34"/>
@@ -28944,9 +28563,8 @@
       <c r="Z161" s="34"/>
       <c r="AA161" s="34"/>
       <c r="AB161" s="34"/>
-      <c r="AC161" s="34"/>
-    </row>
-    <row r="162" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J162" s="34"/>
       <c r="K162" s="34"/>
       <c r="L162" s="34"/>
@@ -28966,9 +28584,8 @@
       <c r="Z162" s="34"/>
       <c r="AA162" s="34"/>
       <c r="AB162" s="34"/>
-      <c r="AC162" s="34"/>
-    </row>
-    <row r="163" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J163" s="34"/>
       <c r="K163" s="34"/>
       <c r="L163" s="34"/>
@@ -28988,9 +28605,8 @@
       <c r="Z163" s="34"/>
       <c r="AA163" s="34"/>
       <c r="AB163" s="34"/>
-      <c r="AC163" s="34"/>
-    </row>
-    <row r="164" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J164" s="34"/>
       <c r="K164" s="34"/>
       <c r="L164" s="34"/>
@@ -29010,9 +28626,8 @@
       <c r="Z164" s="34"/>
       <c r="AA164" s="34"/>
       <c r="AB164" s="34"/>
-      <c r="AC164" s="34"/>
-    </row>
-    <row r="165" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J165" s="34"/>
       <c r="K165" s="34"/>
       <c r="L165" s="34"/>
@@ -29032,9 +28647,8 @@
       <c r="Z165" s="34"/>
       <c r="AA165" s="34"/>
       <c r="AB165" s="34"/>
-      <c r="AC165" s="34"/>
-    </row>
-    <row r="166" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J166" s="34"/>
       <c r="K166" s="34"/>
       <c r="L166" s="34"/>
@@ -29054,9 +28668,8 @@
       <c r="Z166" s="34"/>
       <c r="AA166" s="34"/>
       <c r="AB166" s="34"/>
-      <c r="AC166" s="34"/>
-    </row>
-    <row r="167" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J167" s="34"/>
       <c r="K167" s="34"/>
       <c r="L167" s="34"/>
@@ -29076,9 +28689,8 @@
       <c r="Z167" s="34"/>
       <c r="AA167" s="34"/>
       <c r="AB167" s="34"/>
-      <c r="AC167" s="34"/>
-    </row>
-    <row r="168" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J168" s="34"/>
       <c r="K168" s="34"/>
       <c r="L168" s="34"/>
@@ -29098,9 +28710,8 @@
       <c r="Z168" s="34"/>
       <c r="AA168" s="34"/>
       <c r="AB168" s="34"/>
-      <c r="AC168" s="34"/>
-    </row>
-    <row r="169" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J169" s="34"/>
       <c r="K169" s="34"/>
       <c r="L169" s="34"/>
@@ -29120,9 +28731,8 @@
       <c r="Z169" s="34"/>
       <c r="AA169" s="34"/>
       <c r="AB169" s="34"/>
-      <c r="AC169" s="34"/>
-    </row>
-    <row r="170" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J170" s="34"/>
       <c r="K170" s="34"/>
       <c r="L170" s="34"/>
@@ -29142,9 +28752,8 @@
       <c r="Z170" s="34"/>
       <c r="AA170" s="34"/>
       <c r="AB170" s="34"/>
-      <c r="AC170" s="34"/>
-    </row>
-    <row r="171" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J171" s="34"/>
       <c r="K171" s="34"/>
       <c r="L171" s="34"/>
@@ -29164,9 +28773,8 @@
       <c r="Z171" s="34"/>
       <c r="AA171" s="34"/>
       <c r="AB171" s="34"/>
-      <c r="AC171" s="34"/>
-    </row>
-    <row r="172" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J172" s="34"/>
       <c r="K172" s="34"/>
       <c r="L172" s="34"/>
@@ -29186,9 +28794,8 @@
       <c r="Z172" s="34"/>
       <c r="AA172" s="34"/>
       <c r="AB172" s="34"/>
-      <c r="AC172" s="34"/>
-    </row>
-    <row r="173" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J173" s="34"/>
       <c r="K173" s="34"/>
       <c r="L173" s="34"/>
@@ -29208,9 +28815,8 @@
       <c r="Z173" s="34"/>
       <c r="AA173" s="34"/>
       <c r="AB173" s="34"/>
-      <c r="AC173" s="34"/>
-    </row>
-    <row r="174" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J174" s="34"/>
       <c r="K174" s="34"/>
       <c r="L174" s="34"/>
@@ -29230,9 +28836,8 @@
       <c r="Z174" s="34"/>
       <c r="AA174" s="34"/>
       <c r="AB174" s="34"/>
-      <c r="AC174" s="34"/>
-    </row>
-    <row r="175" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J175" s="34"/>
       <c r="K175" s="34"/>
       <c r="L175" s="34"/>
@@ -29252,9 +28857,8 @@
       <c r="Z175" s="34"/>
       <c r="AA175" s="34"/>
       <c r="AB175" s="34"/>
-      <c r="AC175" s="34"/>
-    </row>
-    <row r="176" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J176" s="34"/>
       <c r="K176" s="34"/>
       <c r="L176" s="34"/>
@@ -29274,9 +28878,8 @@
       <c r="Z176" s="34"/>
       <c r="AA176" s="34"/>
       <c r="AB176" s="34"/>
-      <c r="AC176" s="34"/>
-    </row>
-    <row r="177" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J177" s="34"/>
       <c r="K177" s="34"/>
       <c r="L177" s="34"/>
@@ -29296,9 +28899,8 @@
       <c r="Z177" s="34"/>
       <c r="AA177" s="34"/>
       <c r="AB177" s="34"/>
-      <c r="AC177" s="34"/>
-    </row>
-    <row r="178" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J178" s="34"/>
       <c r="K178" s="34"/>
       <c r="L178" s="34"/>
@@ -29318,9 +28920,8 @@
       <c r="Z178" s="34"/>
       <c r="AA178" s="34"/>
       <c r="AB178" s="34"/>
-      <c r="AC178" s="34"/>
-    </row>
-    <row r="179" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J179" s="34"/>
       <c r="K179" s="34"/>
       <c r="L179" s="34"/>
@@ -29340,9 +28941,8 @@
       <c r="Z179" s="34"/>
       <c r="AA179" s="34"/>
       <c r="AB179" s="34"/>
-      <c r="AC179" s="34"/>
-    </row>
-    <row r="180" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J180" s="34"/>
       <c r="K180" s="34"/>
       <c r="L180" s="34"/>
@@ -29362,9 +28962,8 @@
       <c r="Z180" s="34"/>
       <c r="AA180" s="34"/>
       <c r="AB180" s="34"/>
-      <c r="AC180" s="34"/>
-    </row>
-    <row r="181" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J181" s="34"/>
       <c r="K181" s="34"/>
       <c r="L181" s="34"/>
@@ -29384,9 +28983,8 @@
       <c r="Z181" s="34"/>
       <c r="AA181" s="34"/>
       <c r="AB181" s="34"/>
-      <c r="AC181" s="34"/>
-    </row>
-    <row r="182" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J182" s="34"/>
       <c r="K182" s="34"/>
       <c r="L182" s="34"/>
@@ -29406,9 +29004,8 @@
       <c r="Z182" s="34"/>
       <c r="AA182" s="34"/>
       <c r="AB182" s="34"/>
-      <c r="AC182" s="34"/>
-    </row>
-    <row r="183" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J183" s="34"/>
       <c r="K183" s="34"/>
       <c r="L183" s="34"/>
@@ -29428,9 +29025,8 @@
       <c r="Z183" s="34"/>
       <c r="AA183" s="34"/>
       <c r="AB183" s="34"/>
-      <c r="AC183" s="34"/>
-    </row>
-    <row r="184" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J184" s="34"/>
       <c r="K184" s="34"/>
       <c r="L184" s="34"/>
@@ -29450,9 +29046,8 @@
       <c r="Z184" s="34"/>
       <c r="AA184" s="34"/>
       <c r="AB184" s="34"/>
-      <c r="AC184" s="34"/>
-    </row>
-    <row r="185" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J185" s="34"/>
       <c r="K185" s="34"/>
       <c r="L185" s="34"/>
@@ -29472,9 +29067,8 @@
       <c r="Z185" s="34"/>
       <c r="AA185" s="34"/>
       <c r="AB185" s="34"/>
-      <c r="AC185" s="34"/>
-    </row>
-    <row r="186" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J186" s="34"/>
       <c r="K186" s="34"/>
       <c r="L186" s="34"/>
@@ -29494,9 +29088,8 @@
       <c r="Z186" s="34"/>
       <c r="AA186" s="34"/>
       <c r="AB186" s="34"/>
-      <c r="AC186" s="34"/>
-    </row>
-    <row r="187" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J187" s="34"/>
       <c r="K187" s="34"/>
       <c r="L187" s="34"/>
@@ -29516,9 +29109,8 @@
       <c r="Z187" s="34"/>
       <c r="AA187" s="34"/>
       <c r="AB187" s="34"/>
-      <c r="AC187" s="34"/>
-    </row>
-    <row r="188" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J188" s="34"/>
       <c r="K188" s="34"/>
       <c r="L188" s="34"/>
@@ -29538,9 +29130,8 @@
       <c r="Z188" s="34"/>
       <c r="AA188" s="34"/>
       <c r="AB188" s="34"/>
-      <c r="AC188" s="34"/>
-    </row>
-    <row r="189" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J189" s="34"/>
       <c r="K189" s="34"/>
       <c r="L189" s="34"/>
@@ -29560,9 +29151,8 @@
       <c r="Z189" s="34"/>
       <c r="AA189" s="34"/>
       <c r="AB189" s="34"/>
-      <c r="AC189" s="34"/>
-    </row>
-    <row r="190" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J190" s="34"/>
       <c r="K190" s="34"/>
       <c r="L190" s="34"/>
@@ -29582,9 +29172,8 @@
       <c r="Z190" s="34"/>
       <c r="AA190" s="34"/>
       <c r="AB190" s="34"/>
-      <c r="AC190" s="34"/>
-    </row>
-    <row r="191" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J191" s="34"/>
       <c r="K191" s="34"/>
       <c r="L191" s="34"/>
@@ -29604,9 +29193,8 @@
       <c r="Z191" s="34"/>
       <c r="AA191" s="34"/>
       <c r="AB191" s="34"/>
-      <c r="AC191" s="34"/>
-    </row>
-    <row r="192" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J192" s="34"/>
       <c r="K192" s="34"/>
       <c r="L192" s="34"/>
@@ -29626,9 +29214,8 @@
       <c r="Z192" s="34"/>
       <c r="AA192" s="34"/>
       <c r="AB192" s="34"/>
-      <c r="AC192" s="34"/>
-    </row>
-    <row r="193" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J193" s="34"/>
       <c r="K193" s="34"/>
       <c r="L193" s="34"/>
@@ -29648,9 +29235,8 @@
       <c r="Z193" s="34"/>
       <c r="AA193" s="34"/>
       <c r="AB193" s="34"/>
-      <c r="AC193" s="34"/>
-    </row>
-    <row r="194" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J194" s="34"/>
       <c r="K194" s="34"/>
       <c r="L194" s="34"/>
@@ -29670,9 +29256,8 @@
       <c r="Z194" s="34"/>
       <c r="AA194" s="34"/>
       <c r="AB194" s="34"/>
-      <c r="AC194" s="34"/>
-    </row>
-    <row r="195" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J195" s="34"/>
       <c r="K195" s="34"/>
       <c r="L195" s="34"/>
@@ -29692,9 +29277,8 @@
       <c r="Z195" s="34"/>
       <c r="AA195" s="34"/>
       <c r="AB195" s="34"/>
-      <c r="AC195" s="34"/>
-    </row>
-    <row r="196" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J196" s="34"/>
       <c r="K196" s="34"/>
       <c r="L196" s="34"/>
@@ -29714,9 +29298,8 @@
       <c r="Z196" s="34"/>
       <c r="AA196" s="34"/>
       <c r="AB196" s="34"/>
-      <c r="AC196" s="34"/>
-    </row>
-    <row r="197" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J197" s="34"/>
       <c r="K197" s="34"/>
       <c r="L197" s="34"/>
@@ -29736,9 +29319,8 @@
       <c r="Z197" s="34"/>
       <c r="AA197" s="34"/>
       <c r="AB197" s="34"/>
-      <c r="AC197" s="34"/>
-    </row>
-    <row r="198" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J198" s="34"/>
       <c r="K198" s="34"/>
       <c r="L198" s="34"/>
@@ -29758,9 +29340,8 @@
       <c r="Z198" s="34"/>
       <c r="AA198" s="34"/>
       <c r="AB198" s="34"/>
-      <c r="AC198" s="34"/>
-    </row>
-    <row r="199" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J199" s="34"/>
       <c r="K199" s="34"/>
       <c r="L199" s="34"/>
@@ -29780,9 +29361,8 @@
       <c r="Z199" s="34"/>
       <c r="AA199" s="34"/>
       <c r="AB199" s="34"/>
-      <c r="AC199" s="34"/>
-    </row>
-    <row r="200" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J200" s="34"/>
       <c r="K200" s="34"/>
       <c r="L200" s="34"/>
@@ -29802,9 +29382,8 @@
       <c r="Z200" s="34"/>
       <c r="AA200" s="34"/>
       <c r="AB200" s="34"/>
-      <c r="AC200" s="34"/>
-    </row>
-    <row r="201" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J201" s="34"/>
       <c r="K201" s="34"/>
       <c r="L201" s="34"/>
@@ -29824,9 +29403,8 @@
       <c r="Z201" s="34"/>
       <c r="AA201" s="34"/>
       <c r="AB201" s="34"/>
-      <c r="AC201" s="34"/>
-    </row>
-    <row r="202" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J202" s="34"/>
       <c r="K202" s="34"/>
       <c r="L202" s="34"/>
@@ -29846,9 +29424,8 @@
       <c r="Z202" s="34"/>
       <c r="AA202" s="34"/>
       <c r="AB202" s="34"/>
-      <c r="AC202" s="34"/>
-    </row>
-    <row r="203" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J203" s="34"/>
       <c r="K203" s="34"/>
       <c r="L203" s="34"/>
@@ -29868,9 +29445,8 @@
       <c r="Z203" s="34"/>
       <c r="AA203" s="34"/>
       <c r="AB203" s="34"/>
-      <c r="AC203" s="34"/>
-    </row>
-    <row r="204" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J204" s="34"/>
       <c r="K204" s="34"/>
       <c r="L204" s="34"/>
@@ -29890,9 +29466,8 @@
       <c r="Z204" s="34"/>
       <c r="AA204" s="34"/>
       <c r="AB204" s="34"/>
-      <c r="AC204" s="34"/>
-    </row>
-    <row r="205" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J205" s="34"/>
       <c r="K205" s="34"/>
       <c r="L205" s="34"/>
@@ -29912,9 +29487,8 @@
       <c r="Z205" s="34"/>
       <c r="AA205" s="34"/>
       <c r="AB205" s="34"/>
-      <c r="AC205" s="34"/>
-    </row>
-    <row r="206" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J206" s="34"/>
       <c r="K206" s="34"/>
       <c r="L206" s="34"/>
@@ -29934,9 +29508,8 @@
       <c r="Z206" s="34"/>
       <c r="AA206" s="34"/>
       <c r="AB206" s="34"/>
-      <c r="AC206" s="34"/>
-    </row>
-    <row r="207" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J207" s="34"/>
       <c r="K207" s="34"/>
       <c r="L207" s="34"/>
@@ -29956,9 +29529,8 @@
       <c r="Z207" s="34"/>
       <c r="AA207" s="34"/>
       <c r="AB207" s="34"/>
-      <c r="AC207" s="34"/>
-    </row>
-    <row r="208" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J208" s="34"/>
       <c r="K208" s="34"/>
       <c r="L208" s="34"/>
@@ -29978,9 +29550,8 @@
       <c r="Z208" s="34"/>
       <c r="AA208" s="34"/>
       <c r="AB208" s="34"/>
-      <c r="AC208" s="34"/>
-    </row>
-    <row r="209" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J209" s="34"/>
       <c r="K209" s="34"/>
       <c r="L209" s="34"/>
@@ -30000,9 +29571,8 @@
       <c r="Z209" s="34"/>
       <c r="AA209" s="34"/>
       <c r="AB209" s="34"/>
-      <c r="AC209" s="34"/>
-    </row>
-    <row r="210" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J210" s="34"/>
       <c r="K210" s="34"/>
       <c r="L210" s="34"/>
@@ -30022,9 +29592,8 @@
       <c r="Z210" s="34"/>
       <c r="AA210" s="34"/>
       <c r="AB210" s="34"/>
-      <c r="AC210" s="34"/>
-    </row>
-    <row r="211" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J211" s="34"/>
       <c r="K211" s="34"/>
       <c r="L211" s="34"/>
@@ -30044,9 +29613,8 @@
       <c r="Z211" s="34"/>
       <c r="AA211" s="34"/>
       <c r="AB211" s="34"/>
-      <c r="AC211" s="34"/>
-    </row>
-    <row r="212" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J212" s="34"/>
       <c r="K212" s="34"/>
       <c r="L212" s="34"/>
@@ -30066,9 +29634,8 @@
       <c r="Z212" s="34"/>
       <c r="AA212" s="34"/>
       <c r="AB212" s="34"/>
-      <c r="AC212" s="34"/>
-    </row>
-    <row r="213" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J213" s="34"/>
       <c r="K213" s="34"/>
       <c r="L213" s="34"/>
@@ -30088,9 +29655,8 @@
       <c r="Z213" s="34"/>
       <c r="AA213" s="34"/>
       <c r="AB213" s="34"/>
-      <c r="AC213" s="34"/>
-    </row>
-    <row r="214" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J214" s="34"/>
       <c r="K214" s="34"/>
       <c r="L214" s="34"/>
@@ -30110,9 +29676,8 @@
       <c r="Z214" s="34"/>
       <c r="AA214" s="34"/>
       <c r="AB214" s="34"/>
-      <c r="AC214" s="34"/>
-    </row>
-    <row r="215" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J215" s="34"/>
       <c r="K215" s="34"/>
       <c r="L215" s="34"/>
@@ -30132,9 +29697,8 @@
       <c r="Z215" s="34"/>
       <c r="AA215" s="34"/>
       <c r="AB215" s="34"/>
-      <c r="AC215" s="34"/>
-    </row>
-    <row r="216" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J216" s="34"/>
       <c r="K216" s="34"/>
       <c r="L216" s="34"/>
@@ -30154,9 +29718,8 @@
       <c r="Z216" s="34"/>
       <c r="AA216" s="34"/>
       <c r="AB216" s="34"/>
-      <c r="AC216" s="34"/>
-    </row>
-    <row r="217" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J217" s="34"/>
       <c r="K217" s="34"/>
       <c r="L217" s="34"/>
@@ -30176,9 +29739,8 @@
       <c r="Z217" s="34"/>
       <c r="AA217" s="34"/>
       <c r="AB217" s="34"/>
-      <c r="AC217" s="34"/>
-    </row>
-    <row r="218" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J218" s="34"/>
       <c r="K218" s="34"/>
       <c r="L218" s="34"/>
@@ -30198,9 +29760,8 @@
       <c r="Z218" s="34"/>
       <c r="AA218" s="34"/>
       <c r="AB218" s="34"/>
-      <c r="AC218" s="34"/>
-    </row>
-    <row r="219" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J219" s="34"/>
       <c r="K219" s="34"/>
       <c r="L219" s="34"/>
@@ -30220,9 +29781,8 @@
       <c r="Z219" s="34"/>
       <c r="AA219" s="34"/>
       <c r="AB219" s="34"/>
-      <c r="AC219" s="34"/>
-    </row>
-    <row r="220" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J220" s="34"/>
       <c r="K220" s="34"/>
       <c r="L220" s="34"/>
@@ -30242,9 +29802,8 @@
       <c r="Z220" s="34"/>
       <c r="AA220" s="34"/>
       <c r="AB220" s="34"/>
-      <c r="AC220" s="34"/>
-    </row>
-    <row r="221" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J221" s="34"/>
       <c r="K221" s="34"/>
       <c r="L221" s="34"/>
@@ -30264,9 +29823,8 @@
       <c r="Z221" s="34"/>
       <c r="AA221" s="34"/>
       <c r="AB221" s="34"/>
-      <c r="AC221" s="34"/>
-    </row>
-    <row r="222" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J222" s="34"/>
       <c r="K222" s="34"/>
       <c r="L222" s="34"/>
@@ -30286,9 +29844,8 @@
       <c r="Z222" s="34"/>
       <c r="AA222" s="34"/>
       <c r="AB222" s="34"/>
-      <c r="AC222" s="34"/>
-    </row>
-    <row r="223" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J223" s="34"/>
       <c r="K223" s="34"/>
       <c r="L223" s="34"/>
@@ -30308,9 +29865,8 @@
       <c r="Z223" s="34"/>
       <c r="AA223" s="34"/>
       <c r="AB223" s="34"/>
-      <c r="AC223" s="34"/>
-    </row>
-    <row r="224" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J224" s="34"/>
       <c r="K224" s="34"/>
       <c r="L224" s="34"/>
@@ -30330,9 +29886,8 @@
       <c r="Z224" s="34"/>
       <c r="AA224" s="34"/>
       <c r="AB224" s="34"/>
-      <c r="AC224" s="34"/>
-    </row>
-    <row r="225" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J225" s="34"/>
       <c r="K225" s="34"/>
       <c r="L225" s="34"/>
@@ -30352,9 +29907,8 @@
       <c r="Z225" s="34"/>
       <c r="AA225" s="34"/>
       <c r="AB225" s="34"/>
-      <c r="AC225" s="34"/>
-    </row>
-    <row r="226" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J226" s="34"/>
       <c r="K226" s="34"/>
       <c r="L226" s="34"/>
@@ -30374,9 +29928,8 @@
       <c r="Z226" s="34"/>
       <c r="AA226" s="34"/>
       <c r="AB226" s="34"/>
-      <c r="AC226" s="34"/>
-    </row>
-    <row r="227" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J227" s="34"/>
       <c r="K227" s="34"/>
       <c r="L227" s="34"/>
@@ -30396,9 +29949,8 @@
       <c r="Z227" s="34"/>
       <c r="AA227" s="34"/>
       <c r="AB227" s="34"/>
-      <c r="AC227" s="34"/>
-    </row>
-    <row r="228" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J228" s="34"/>
       <c r="K228" s="34"/>
       <c r="L228" s="34"/>
@@ -30418,9 +29970,8 @@
       <c r="Z228" s="34"/>
       <c r="AA228" s="34"/>
       <c r="AB228" s="34"/>
-      <c r="AC228" s="34"/>
-    </row>
-    <row r="229" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J229" s="34"/>
       <c r="K229" s="34"/>
       <c r="L229" s="34"/>
@@ -30440,9 +29991,8 @@
       <c r="Z229" s="34"/>
       <c r="AA229" s="34"/>
       <c r="AB229" s="34"/>
-      <c r="AC229" s="34"/>
-    </row>
-    <row r="230" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J230" s="34"/>
       <c r="K230" s="34"/>
       <c r="L230" s="34"/>
@@ -30462,9 +30012,8 @@
       <c r="Z230" s="34"/>
       <c r="AA230" s="34"/>
       <c r="AB230" s="34"/>
-      <c r="AC230" s="34"/>
-    </row>
-    <row r="231" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J231" s="34"/>
       <c r="K231" s="34"/>
       <c r="L231" s="34"/>
@@ -30484,9 +30033,8 @@
       <c r="Z231" s="34"/>
       <c r="AA231" s="34"/>
       <c r="AB231" s="34"/>
-      <c r="AC231" s="34"/>
-    </row>
-    <row r="232" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J232" s="34"/>
       <c r="K232" s="34"/>
       <c r="L232" s="34"/>
@@ -30506,9 +30054,8 @@
       <c r="Z232" s="34"/>
       <c r="AA232" s="34"/>
       <c r="AB232" s="34"/>
-      <c r="AC232" s="34"/>
-    </row>
-    <row r="233" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J233" s="34"/>
       <c r="K233" s="34"/>
       <c r="L233" s="34"/>
@@ -30528,9 +30075,8 @@
       <c r="Z233" s="34"/>
       <c r="AA233" s="34"/>
       <c r="AB233" s="34"/>
-      <c r="AC233" s="34"/>
-    </row>
-    <row r="234" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J234" s="34"/>
       <c r="K234" s="34"/>
       <c r="L234" s="34"/>
@@ -30550,9 +30096,8 @@
       <c r="Z234" s="34"/>
       <c r="AA234" s="34"/>
       <c r="AB234" s="34"/>
-      <c r="AC234" s="34"/>
-    </row>
-    <row r="235" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J235" s="34"/>
       <c r="K235" s="34"/>
       <c r="L235" s="34"/>
@@ -30572,9 +30117,8 @@
       <c r="Z235" s="34"/>
       <c r="AA235" s="34"/>
       <c r="AB235" s="34"/>
-      <c r="AC235" s="34"/>
-    </row>
-    <row r="236" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J236" s="34"/>
       <c r="K236" s="34"/>
       <c r="L236" s="34"/>
@@ -30594,9 +30138,8 @@
       <c r="Z236" s="34"/>
       <c r="AA236" s="34"/>
       <c r="AB236" s="34"/>
-      <c r="AC236" s="34"/>
-    </row>
-    <row r="237" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J237" s="34"/>
       <c r="K237" s="34"/>
       <c r="L237" s="34"/>
@@ -30616,9 +30159,8 @@
       <c r="Z237" s="34"/>
       <c r="AA237" s="34"/>
       <c r="AB237" s="34"/>
-      <c r="AC237" s="34"/>
-    </row>
-    <row r="238" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J238" s="34"/>
       <c r="K238" s="34"/>
       <c r="L238" s="34"/>
@@ -30638,9 +30180,8 @@
       <c r="Z238" s="34"/>
       <c r="AA238" s="34"/>
       <c r="AB238" s="34"/>
-      <c r="AC238" s="34"/>
-    </row>
-    <row r="239" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J239" s="34"/>
       <c r="K239" s="34"/>
       <c r="L239" s="34"/>
@@ -30660,9 +30201,8 @@
       <c r="Z239" s="34"/>
       <c r="AA239" s="34"/>
       <c r="AB239" s="34"/>
-      <c r="AC239" s="34"/>
-    </row>
-    <row r="240" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J240" s="34"/>
       <c r="K240" s="34"/>
       <c r="L240" s="34"/>
@@ -30682,9 +30222,8 @@
       <c r="Z240" s="34"/>
       <c r="AA240" s="34"/>
       <c r="AB240" s="34"/>
-      <c r="AC240" s="34"/>
-    </row>
-    <row r="241" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J241" s="34"/>
       <c r="K241" s="34"/>
       <c r="L241" s="34"/>
@@ -30704,9 +30243,8 @@
       <c r="Z241" s="34"/>
       <c r="AA241" s="34"/>
       <c r="AB241" s="34"/>
-      <c r="AC241" s="34"/>
-    </row>
-    <row r="242" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J242" s="34"/>
       <c r="K242" s="34"/>
       <c r="L242" s="34"/>
@@ -30726,9 +30264,8 @@
       <c r="Z242" s="34"/>
       <c r="AA242" s="34"/>
       <c r="AB242" s="34"/>
-      <c r="AC242" s="34"/>
-    </row>
-    <row r="243" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J243" s="34"/>
       <c r="K243" s="34"/>
       <c r="L243" s="34"/>
@@ -30748,9 +30285,8 @@
       <c r="Z243" s="34"/>
       <c r="AA243" s="34"/>
       <c r="AB243" s="34"/>
-      <c r="AC243" s="34"/>
-    </row>
-    <row r="244" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J244" s="34"/>
       <c r="K244" s="34"/>
       <c r="L244" s="34"/>
@@ -30770,9 +30306,8 @@
       <c r="Z244" s="34"/>
       <c r="AA244" s="34"/>
       <c r="AB244" s="34"/>
-      <c r="AC244" s="34"/>
-    </row>
-    <row r="245" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J245" s="34"/>
       <c r="K245" s="34"/>
       <c r="L245" s="34"/>
@@ -30792,9 +30327,8 @@
       <c r="Z245" s="34"/>
       <c r="AA245" s="34"/>
       <c r="AB245" s="34"/>
-      <c r="AC245" s="34"/>
-    </row>
-    <row r="246" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J246" s="34"/>
       <c r="K246" s="34"/>
       <c r="L246" s="34"/>
@@ -30814,9 +30348,8 @@
       <c r="Z246" s="34"/>
       <c r="AA246" s="34"/>
       <c r="AB246" s="34"/>
-      <c r="AC246" s="34"/>
-    </row>
-    <row r="247" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J247" s="34"/>
       <c r="K247" s="34"/>
       <c r="L247" s="34"/>
@@ -30836,9 +30369,8 @@
       <c r="Z247" s="34"/>
       <c r="AA247" s="34"/>
       <c r="AB247" s="34"/>
-      <c r="AC247" s="34"/>
-    </row>
-    <row r="248" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J248" s="34"/>
       <c r="K248" s="34"/>
       <c r="L248" s="34"/>
@@ -30858,9 +30390,8 @@
       <c r="Z248" s="34"/>
       <c r="AA248" s="34"/>
       <c r="AB248" s="34"/>
-      <c r="AC248" s="34"/>
-    </row>
-    <row r="249" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J249" s="34"/>
       <c r="K249" s="34"/>
       <c r="L249" s="34"/>
@@ -30880,9 +30411,8 @@
       <c r="Z249" s="34"/>
       <c r="AA249" s="34"/>
       <c r="AB249" s="34"/>
-      <c r="AC249" s="34"/>
-    </row>
-    <row r="250" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J250" s="34"/>
       <c r="K250" s="34"/>
       <c r="L250" s="34"/>
@@ -30902,9 +30432,8 @@
       <c r="Z250" s="34"/>
       <c r="AA250" s="34"/>
       <c r="AB250" s="34"/>
-      <c r="AC250" s="34"/>
-    </row>
-    <row r="251" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J251" s="34"/>
       <c r="K251" s="34"/>
       <c r="L251" s="34"/>
@@ -30924,9 +30453,8 @@
       <c r="Z251" s="34"/>
       <c r="AA251" s="34"/>
       <c r="AB251" s="34"/>
-      <c r="AC251" s="34"/>
-    </row>
-    <row r="252" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J252" s="34"/>
       <c r="K252" s="34"/>
       <c r="L252" s="34"/>
@@ -30946,9 +30474,8 @@
       <c r="Z252" s="34"/>
       <c r="AA252" s="34"/>
       <c r="AB252" s="34"/>
-      <c r="AC252" s="34"/>
-    </row>
-    <row r="253" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J253" s="34"/>
       <c r="K253" s="34"/>
       <c r="L253" s="34"/>
@@ -30968,9 +30495,8 @@
       <c r="Z253" s="34"/>
       <c r="AA253" s="34"/>
       <c r="AB253" s="34"/>
-      <c r="AC253" s="34"/>
-    </row>
-    <row r="254" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J254" s="34"/>
       <c r="K254" s="34"/>
       <c r="L254" s="34"/>
@@ -30990,9 +30516,8 @@
       <c r="Z254" s="34"/>
       <c r="AA254" s="34"/>
       <c r="AB254" s="34"/>
-      <c r="AC254" s="34"/>
-    </row>
-    <row r="255" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J255" s="34"/>
       <c r="K255" s="34"/>
       <c r="L255" s="34"/>
@@ -31012,9 +30537,8 @@
       <c r="Z255" s="34"/>
       <c r="AA255" s="34"/>
       <c r="AB255" s="34"/>
-      <c r="AC255" s="34"/>
-    </row>
-    <row r="256" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J256" s="34"/>
       <c r="K256" s="34"/>
       <c r="L256" s="34"/>
@@ -31034,9 +30558,8 @@
       <c r="Z256" s="34"/>
       <c r="AA256" s="34"/>
       <c r="AB256" s="34"/>
-      <c r="AC256" s="34"/>
-    </row>
-    <row r="257" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J257" s="34"/>
       <c r="K257" s="34"/>
       <c r="L257" s="34"/>
@@ -31056,9 +30579,8 @@
       <c r="Z257" s="34"/>
       <c r="AA257" s="34"/>
       <c r="AB257" s="34"/>
-      <c r="AC257" s="34"/>
-    </row>
-    <row r="258" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J258" s="34"/>
       <c r="K258" s="34"/>
       <c r="L258" s="34"/>
@@ -31078,9 +30600,8 @@
       <c r="Z258" s="34"/>
       <c r="AA258" s="34"/>
       <c r="AB258" s="34"/>
-      <c r="AC258" s="34"/>
-    </row>
-    <row r="259" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J259" s="34"/>
       <c r="K259" s="34"/>
       <c r="L259" s="34"/>
@@ -31100,9 +30621,8 @@
       <c r="Z259" s="34"/>
       <c r="AA259" s="34"/>
       <c r="AB259" s="34"/>
-      <c r="AC259" s="34"/>
-    </row>
-    <row r="260" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J260" s="34"/>
       <c r="K260" s="34"/>
       <c r="L260" s="34"/>
@@ -31122,9 +30642,8 @@
       <c r="Z260" s="34"/>
       <c r="AA260" s="34"/>
       <c r="AB260" s="34"/>
-      <c r="AC260" s="34"/>
-    </row>
-    <row r="261" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J261" s="34"/>
       <c r="K261" s="34"/>
       <c r="L261" s="34"/>
@@ -31144,9 +30663,8 @@
       <c r="Z261" s="34"/>
       <c r="AA261" s="34"/>
       <c r="AB261" s="34"/>
-      <c r="AC261" s="34"/>
-    </row>
-    <row r="262" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J262" s="34"/>
       <c r="K262" s="34"/>
       <c r="L262" s="34"/>
@@ -31166,9 +30684,8 @@
       <c r="Z262" s="34"/>
       <c r="AA262" s="34"/>
       <c r="AB262" s="34"/>
-      <c r="AC262" s="34"/>
-    </row>
-    <row r="263" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J263" s="34"/>
       <c r="K263" s="34"/>
       <c r="L263" s="34"/>
@@ -31188,9 +30705,8 @@
       <c r="Z263" s="34"/>
       <c r="AA263" s="34"/>
       <c r="AB263" s="34"/>
-      <c r="AC263" s="34"/>
-    </row>
-    <row r="264" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J264" s="34"/>
       <c r="K264" s="34"/>
       <c r="L264" s="34"/>
@@ -31210,9 +30726,8 @@
       <c r="Z264" s="34"/>
       <c r="AA264" s="34"/>
       <c r="AB264" s="34"/>
-      <c r="AC264" s="34"/>
-    </row>
-    <row r="265" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J265" s="34"/>
       <c r="K265" s="34"/>
       <c r="L265" s="34"/>
@@ -31232,15 +30747,14 @@
       <c r="Z265" s="34"/>
       <c r="AA265" s="34"/>
       <c r="AB265" s="34"/>
-      <c r="AC265" s="34"/>
-    </row>
-    <row r="266" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="10:29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="266" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" spans="10:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31967,8 +31481,8 @@
     <row r="996" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="J2:AC2"/>
-    <mergeCell ref="J3:AC3"/>
+    <mergeCell ref="J2:AB2"/>
+    <mergeCell ref="J3:AB3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
